--- a/Listes_indicateurs_annuaire_stat.xlsx
+++ b/Listes_indicateurs_annuaire_stat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kabor\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\monprojet1_annuaire\Production-statistique-MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F727B2B-2F27-4646-ACFE-901FCDF9D239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE82AB64-652E-435E-AA8E-7D0BB57BE3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3108" uniqueCount="2177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="2189">
   <si>
     <t>listes_indicateurs</t>
   </si>
@@ -6561,6 +6561,42 @@
   </si>
   <si>
     <t>SMI-Enfants nés prématurés</t>
+  </si>
+  <si>
+    <t>eyxvYzF1BBL.ACTUAL_REPORTS</t>
+  </si>
+  <si>
+    <t>OBC- Formulaire OBC -02- Paludisme - Actual reports</t>
+  </si>
+  <si>
+    <t>eyxvYzF1BBL.ACTUAL_REPORTS_ON_TIME</t>
+  </si>
+  <si>
+    <t>OBC- Formulaire OBC -02- Paludisme - Actual reports on time</t>
+  </si>
+  <si>
+    <t>eyxvYzF1BBL.EXPECTED_REPORTS</t>
+  </si>
+  <si>
+    <t>OBC- Formulaire OBC -02- Paludisme - Expected reports</t>
+  </si>
+  <si>
+    <t>Zq2zZQEZXzi.ACTUAL_REPORTS</t>
+  </si>
+  <si>
+    <t>OBC- Formulaire OBC -03- Tuberculose &amp; VIH - Actual reports</t>
+  </si>
+  <si>
+    <t>Zq2zZQEZXzi.ACTUAL_REPORTS_ON_TIME</t>
+  </si>
+  <si>
+    <t>OBC- Formulaire OBC -03- Tuberculose &amp; VIH - Actual reports on time</t>
+  </si>
+  <si>
+    <t>Zq2zZQEZXzi.EXPECTED_REPORTS</t>
+  </si>
+  <si>
+    <t>OBC- Formulaire OBC -03- Tuberculose &amp; VIH - Expected reports</t>
   </si>
 </sst>
 </file>
@@ -6922,10 +6958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z789"/>
+  <dimension ref="A1:Z786"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" topLeftCell="A699" workbookViewId="0">
+      <selection activeCell="C710" sqref="C710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -32320,16 +32356,16 @@
     </row>
     <row r="706" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A706" s="1" t="s">
-        <v>2010</v>
+        <v>1985</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>1986</v>
+        <v>2177</v>
       </c>
       <c r="C706" s="1" t="s">
-        <v>1987</v>
+        <v>2178</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>1987</v>
+        <v>2178</v>
       </c>
       <c r="E706" s="1"/>
       <c r="F706" s="1"/>
@@ -32356,16 +32392,16 @@
     </row>
     <row r="707" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A707" s="1" t="s">
-        <v>2010</v>
+        <v>1985</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>1988</v>
+        <v>2179</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>1989</v>
+        <v>2180</v>
       </c>
       <c r="D707" s="1" t="s">
-        <v>1989</v>
+        <v>2180</v>
       </c>
       <c r="E707" s="1"/>
       <c r="F707" s="1"/>
@@ -32392,16 +32428,16 @@
     </row>
     <row r="708" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A708" s="1" t="s">
-        <v>2010</v>
+        <v>1985</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>1990</v>
+        <v>2181</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>1991</v>
+        <v>2182</v>
       </c>
       <c r="D708" s="1" t="s">
-        <v>1991</v>
+        <v>2182</v>
       </c>
       <c r="E708" s="1"/>
       <c r="F708" s="1"/>
@@ -32427,10 +32463,18 @@
       <c r="Z708" s="1"/>
     </row>
     <row r="709" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A709" s="1"/>
-      <c r="B709" s="1"/>
-      <c r="C709" s="1"/>
-      <c r="D709" s="1"/>
+      <c r="A709" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>2184</v>
+      </c>
       <c r="E709" s="1"/>
       <c r="F709" s="1"/>
       <c r="G709" s="1"/>
@@ -32455,10 +32499,18 @@
       <c r="Z709" s="1"/>
     </row>
     <row r="710" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A710" s="1"/>
-      <c r="B710" s="1"/>
-      <c r="C710" s="1"/>
-      <c r="D710" s="1"/>
+      <c r="A710" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>2186</v>
+      </c>
       <c r="E710" s="1"/>
       <c r="F710" s="1"/>
       <c r="G710" s="1"/>
@@ -32483,10 +32535,18 @@
       <c r="Z710" s="1"/>
     </row>
     <row r="711" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A711" s="1"/>
-      <c r="B711" s="1"/>
-      <c r="C711" s="1"/>
-      <c r="D711" s="1"/>
+      <c r="A711" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>2188</v>
+      </c>
       <c r="E711" s="1"/>
       <c r="F711" s="1"/>
       <c r="G711" s="1"/>
@@ -32511,10 +32571,18 @@
       <c r="Z711" s="1"/>
     </row>
     <row r="712" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A712" s="1"/>
-      <c r="B712" s="1"/>
-      <c r="C712" s="1"/>
-      <c r="D712" s="1"/>
+      <c r="A712" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>1987</v>
+      </c>
       <c r="E712" s="1"/>
       <c r="F712" s="1"/>
       <c r="G712" s="1"/>
@@ -32539,10 +32607,18 @@
       <c r="Z712" s="1"/>
     </row>
     <row r="713" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A713" s="1"/>
-      <c r="B713" s="1"/>
-      <c r="C713" s="1"/>
-      <c r="D713" s="1"/>
+      <c r="A713" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>1989</v>
+      </c>
       <c r="E713" s="1"/>
       <c r="F713" s="1"/>
       <c r="G713" s="1"/>
@@ -32567,10 +32643,18 @@
       <c r="Z713" s="1"/>
     </row>
     <row r="714" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A714" s="1"/>
-      <c r="B714" s="1"/>
-      <c r="C714" s="1"/>
-      <c r="D714" s="1"/>
+      <c r="A714" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>1991</v>
+      </c>
       <c r="E714" s="1"/>
       <c r="F714" s="1"/>
       <c r="G714" s="1"/>
@@ -34610,90 +34694,6 @@
       <c r="Y786" s="1"/>
       <c r="Z786" s="1"/>
     </row>
-    <row r="787" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A787" s="1"/>
-      <c r="B787" s="1"/>
-      <c r="C787" s="1"/>
-      <c r="D787" s="1"/>
-      <c r="E787" s="1"/>
-      <c r="F787" s="1"/>
-      <c r="G787" s="1"/>
-      <c r="H787" s="1"/>
-      <c r="I787" s="1"/>
-      <c r="J787" s="1"/>
-      <c r="K787" s="1"/>
-      <c r="L787" s="1"/>
-      <c r="M787" s="1"/>
-      <c r="N787" s="1"/>
-      <c r="O787" s="1"/>
-      <c r="P787" s="1"/>
-      <c r="Q787" s="1"/>
-      <c r="R787" s="1"/>
-      <c r="S787" s="1"/>
-      <c r="T787" s="1"/>
-      <c r="U787" s="1"/>
-      <c r="V787" s="1"/>
-      <c r="W787" s="1"/>
-      <c r="X787" s="1"/>
-      <c r="Y787" s="1"/>
-      <c r="Z787" s="1"/>
-    </row>
-    <row r="788" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A788" s="1"/>
-      <c r="B788" s="1"/>
-      <c r="C788" s="1"/>
-      <c r="D788" s="1"/>
-      <c r="E788" s="1"/>
-      <c r="F788" s="1"/>
-      <c r="G788" s="1"/>
-      <c r="H788" s="1"/>
-      <c r="I788" s="1"/>
-      <c r="J788" s="1"/>
-      <c r="K788" s="1"/>
-      <c r="L788" s="1"/>
-      <c r="M788" s="1"/>
-      <c r="N788" s="1"/>
-      <c r="O788" s="1"/>
-      <c r="P788" s="1"/>
-      <c r="Q788" s="1"/>
-      <c r="R788" s="1"/>
-      <c r="S788" s="1"/>
-      <c r="T788" s="1"/>
-      <c r="U788" s="1"/>
-      <c r="V788" s="1"/>
-      <c r="W788" s="1"/>
-      <c r="X788" s="1"/>
-      <c r="Y788" s="1"/>
-      <c r="Z788" s="1"/>
-    </row>
-    <row r="789" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A789" s="1"/>
-      <c r="B789" s="1"/>
-      <c r="C789" s="1"/>
-      <c r="D789" s="1"/>
-      <c r="E789" s="1"/>
-      <c r="F789" s="1"/>
-      <c r="G789" s="1"/>
-      <c r="H789" s="1"/>
-      <c r="I789" s="1"/>
-      <c r="J789" s="1"/>
-      <c r="K789" s="1"/>
-      <c r="L789" s="1"/>
-      <c r="M789" s="1"/>
-      <c r="N789" s="1"/>
-      <c r="O789" s="1"/>
-      <c r="P789" s="1"/>
-      <c r="Q789" s="1"/>
-      <c r="R789" s="1"/>
-      <c r="S789" s="1"/>
-      <c r="T789" s="1"/>
-      <c r="U789" s="1"/>
-      <c r="V789" s="1"/>
-      <c r="W789" s="1"/>
-      <c r="X789" s="1"/>
-      <c r="Y789" s="1"/>
-      <c r="Z789" s="1"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Listes_indicateurs_annuaire_stat.xlsx
+++ b/Listes_indicateurs_annuaire_stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\monprojet1_annuaire\Production-statistique-MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE82AB64-652E-435E-AA8E-7D0BB57BE3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273B14A4-FF4E-4530-9A59-DAE767E39861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicateurs!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">personnes_agees!$A$1:$D$69</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="OlHGn289/FffLJNEG5/nxjzdel1t8WWh+6JISqpAWKI="/>
     </ext>
@@ -30,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="2189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="2243">
   <si>
     <t>listes_indicateurs</t>
   </si>
@@ -6597,6 +6608,168 @@
   </si>
   <si>
     <t>OBC- Formulaire OBC -03- Tuberculose &amp; VIH - Expected reports</t>
+  </si>
+  <si>
+    <t>JDyMmJPvSdR</t>
+  </si>
+  <si>
+    <t>Obc-Activités d'IEC réalisées sur Paludisme</t>
+  </si>
+  <si>
+    <t>RnXBuMb4UQ2</t>
+  </si>
+  <si>
+    <t>Obc-Activités d'IEC réalisées sur le VIH</t>
+  </si>
+  <si>
+    <t>sLGtWmcMEPy</t>
+  </si>
+  <si>
+    <t>Obc-Activités d'IEC réalisées sur les Hépatites</t>
+  </si>
+  <si>
+    <t>mjdu9Q6tWp5</t>
+  </si>
+  <si>
+    <t>Obc-Activités d'IEC réalisées sur les IST</t>
+  </si>
+  <si>
+    <t>xx0t5BCCZC1</t>
+  </si>
+  <si>
+    <t>Obc-Personnes touchees par les séances d'IEC sur le Paludisme</t>
+  </si>
+  <si>
+    <t>pZHmpHBJZNP</t>
+  </si>
+  <si>
+    <t>Obc-Personnes touchées par les séances d'IEC sur le VIH</t>
+  </si>
+  <si>
+    <t>VyeYsQ6QTQO</t>
+  </si>
+  <si>
+    <t>Obc-Personnes touchées par les séances d'IEC sur les Hépatites</t>
+  </si>
+  <si>
+    <t>jO7VoJG0goA</t>
+  </si>
+  <si>
+    <t>Obc-Personnes touchées par les séances d'IEC sur les IST</t>
+  </si>
+  <si>
+    <t>VAYMyRH5BX1</t>
+  </si>
+  <si>
+    <t>Obc-Personnes ayant participé aux clubs d’observance</t>
+  </si>
+  <si>
+    <t>gzTkHkY4MKw</t>
+  </si>
+  <si>
+    <t>Obc-Personnes ayant participé aux groupes de parole</t>
+  </si>
+  <si>
+    <t>k8YC9ydkUnk</t>
+  </si>
+  <si>
+    <t>Obc-Enfants de moins un an ayant beneficie de MILDA de routine apres intervention de l OBC</t>
+  </si>
+  <si>
+    <t>H4XC5JESXmm</t>
+  </si>
+  <si>
+    <t>Obc-Enfants de moins un an n ayant pas recu de MILDA pendant la visite</t>
+  </si>
+  <si>
+    <t>PQ9iAPg2ASw</t>
+  </si>
+  <si>
+    <t>Obc-Enfants de moins de 5 ans ayant dormi sous MILDA la nuit derniere</t>
+  </si>
+  <si>
+    <t>yePCKQoOW1j</t>
+  </si>
+  <si>
+    <t>Obc-Enfants de moins de 5 ans dans les menages</t>
+  </si>
+  <si>
+    <t>DcyvLt2191n</t>
+  </si>
+  <si>
+    <t>Obc-MILDA vues correctement installees dans les menages pendant la visite</t>
+  </si>
+  <si>
+    <t>uIAMrN2gyBQ</t>
+  </si>
+  <si>
+    <t>Obc-MILDA vues installees dans les menages pendant la visite</t>
+  </si>
+  <si>
+    <t>ehcbiV1YY0x</t>
+  </si>
+  <si>
+    <t>Obc-MILDA disponibles dans les menages pendant la visite</t>
+  </si>
+  <si>
+    <t>cWWENrmTzii</t>
+  </si>
+  <si>
+    <t>Obc-Femmes enceintes n ayant pas recu de MILDA pendant la visite</t>
+  </si>
+  <si>
+    <t>VDuIHjc5Nsj</t>
+  </si>
+  <si>
+    <t>Obc-Femmes enceintes ayant beneficie de MILDA de routine apres intervention de l OBC</t>
+  </si>
+  <si>
+    <t>SbRtnn8DzsG</t>
+  </si>
+  <si>
+    <t>Obc-Femmes enceintes dans les menages</t>
+  </si>
+  <si>
+    <t>bih9TRGe3dV</t>
+  </si>
+  <si>
+    <t>Obc-Femmes enceintes ayant dormi sous MILDA la nuit derniere</t>
+  </si>
+  <si>
+    <t>DddjaOEEJWJ</t>
+  </si>
+  <si>
+    <t>Obc-Enfants non à jour de leur vaccination contre le paludisme trouvés, référés au centre de santé</t>
+  </si>
+  <si>
+    <t>Ax39yeQrVOJ</t>
+  </si>
+  <si>
+    <t>Obc-Enfants non à jour de leur vaccination contre le paludisme trouvés, référés au centre de santé et vaccinés</t>
+  </si>
+  <si>
+    <t>OBC- Formulaire OBC Paludisme: Rapports_attendus</t>
+  </si>
+  <si>
+    <t>OBC- Formulaire OBC Paludisme: Rapports_saisis</t>
+  </si>
+  <si>
+    <t>OBC- Formulaire OBC Paludisme: Rapports_saisis_a_temps</t>
+  </si>
+  <si>
+    <t>OBC- Formulaire OBC -03- Tuberculose &amp; VIH: Rapports_attendus</t>
+  </si>
+  <si>
+    <t>OBC- Formulaire OBC -03- Tuberculose &amp; VIH: Rapports_saisis</t>
+  </si>
+  <si>
+    <t>OBC- Formulaire OBC -03- Tuberculose &amp; VIH: Rapports_saisis_a_temps</t>
+  </si>
+  <si>
+    <t>Obc-PVVIH ayant participé aux clubs d’observance</t>
+  </si>
+  <si>
+    <t>Obc-PVVIH ayant participé aux groupes de parole</t>
   </si>
 </sst>
 </file>
@@ -6649,7 +6822,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6665,6 +6838,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6714,7 +6899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6743,6 +6928,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6958,17 +7148,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z786"/>
+  <dimension ref="A1:Z780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A699" workbookViewId="0">
-      <selection activeCell="C710" sqref="C710"/>
+    <sheetView tabSelected="1" topLeftCell="A703" workbookViewId="0">
+      <selection activeCell="C715" sqref="C715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" customWidth="1"/>
     <col min="4" max="4" width="54.7109375" customWidth="1"/>
     <col min="5" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="26" width="10.7109375" customWidth="1"/>
@@ -10470,13 +10660,13 @@
       <c r="A98" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="14" t="s">
         <v>295</v>
       </c>
       <c r="E98" s="1"/>
@@ -31923,13 +32113,13 @@
       <c r="Z693" s="1"/>
     </row>
     <row r="694" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A694" s="1" t="s">
+      <c r="A694" s="14" t="s">
         <v>1985</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>1986</v>
       </c>
-      <c r="C694" s="1" t="s">
+      <c r="C694" s="16" t="s">
         <v>1987</v>
       </c>
       <c r="D694" s="1" t="s">
@@ -31959,13 +32149,13 @@
       <c r="Z694" s="1"/>
     </row>
     <row r="695" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A695" s="1" t="s">
+      <c r="A695" s="14" t="s">
         <v>1985</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>1988</v>
       </c>
-      <c r="C695" s="1" t="s">
+      <c r="C695" s="16" t="s">
         <v>1989</v>
       </c>
       <c r="D695" s="1" t="s">
@@ -31995,13 +32185,13 @@
       <c r="Z695" s="1"/>
     </row>
     <row r="696" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A696" s="1" t="s">
+      <c r="A696" s="14" t="s">
         <v>1985</v>
       </c>
       <c r="B696" s="1" t="s">
         <v>1990</v>
       </c>
-      <c r="C696" s="1" t="s">
+      <c r="C696" s="16" t="s">
         <v>1991</v>
       </c>
       <c r="D696" s="1" t="s">
@@ -32031,13 +32221,13 @@
       <c r="Z696" s="1"/>
     </row>
     <row r="697" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A697" s="1" t="s">
+      <c r="A697" s="14" t="s">
         <v>1985</v>
       </c>
       <c r="B697" s="1" t="s">
         <v>1992</v>
       </c>
-      <c r="C697" s="1" t="s">
+      <c r="C697" s="16" t="s">
         <v>1993</v>
       </c>
       <c r="D697" s="1" t="s">
@@ -32067,13 +32257,13 @@
       <c r="Z697" s="1"/>
     </row>
     <row r="698" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A698" s="1" t="s">
+      <c r="A698" s="14" t="s">
         <v>1985</v>
       </c>
       <c r="B698" s="1" t="s">
         <v>1994</v>
       </c>
-      <c r="C698" s="1" t="s">
+      <c r="C698" s="16" t="s">
         <v>1995</v>
       </c>
       <c r="D698" s="1" t="s">
@@ -32103,13 +32293,13 @@
       <c r="Z698" s="1"/>
     </row>
     <row r="699" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A699" s="1" t="s">
+      <c r="A699" s="14" t="s">
         <v>1985</v>
       </c>
       <c r="B699" s="1" t="s">
         <v>1996</v>
       </c>
-      <c r="C699" s="1" t="s">
+      <c r="C699" s="16" t="s">
         <v>1997</v>
       </c>
       <c r="D699" s="1" t="s">
@@ -32139,13 +32329,13 @@
       <c r="Z699" s="1"/>
     </row>
     <row r="700" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A700" s="1" t="s">
+      <c r="A700" s="14" t="s">
         <v>1985</v>
       </c>
       <c r="B700" s="1" t="s">
         <v>1998</v>
       </c>
-      <c r="C700" s="1" t="s">
+      <c r="C700" s="16" t="s">
         <v>1999</v>
       </c>
       <c r="D700" s="1" t="s">
@@ -32175,13 +32365,13 @@
       <c r="Z700" s="1"/>
     </row>
     <row r="701" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A701" s="1" t="s">
+      <c r="A701" s="14" t="s">
         <v>1985</v>
       </c>
       <c r="B701" s="1" t="s">
         <v>2000</v>
       </c>
-      <c r="C701" s="1" t="s">
+      <c r="C701" s="16" t="s">
         <v>2001</v>
       </c>
       <c r="D701" s="1" t="s">
@@ -32211,13 +32401,13 @@
       <c r="Z701" s="1"/>
     </row>
     <row r="702" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A702" s="1" t="s">
+      <c r="A702" s="14" t="s">
         <v>1985</v>
       </c>
       <c r="B702" s="1" t="s">
         <v>2002</v>
       </c>
-      <c r="C702" s="1" t="s">
+      <c r="C702" s="16" t="s">
         <v>2003</v>
       </c>
       <c r="D702" s="1" t="s">
@@ -32247,7 +32437,7 @@
       <c r="Z702" s="1"/>
     </row>
     <row r="703" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A703" s="1" t="s">
+      <c r="A703" s="14" t="s">
         <v>1985</v>
       </c>
       <c r="B703" s="1" t="s">
@@ -32283,7 +32473,7 @@
       <c r="Z703" s="1"/>
     </row>
     <row r="704" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A704" s="1" t="s">
+      <c r="A704" s="14" t="s">
         <v>1985</v>
       </c>
       <c r="B704" s="1" t="s">
@@ -32319,7 +32509,7 @@
       <c r="Z704" s="1"/>
     </row>
     <row r="705" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A705" s="1" t="s">
+      <c r="A705" s="14" t="s">
         <v>1985</v>
       </c>
       <c r="B705" s="1" t="s">
@@ -32355,17 +32545,17 @@
       <c r="Z705" s="1"/>
     </row>
     <row r="706" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A706" s="1" t="s">
-        <v>1985</v>
+      <c r="A706" s="14" t="s">
+        <v>2010</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>2177</v>
+        <v>1986</v>
       </c>
       <c r="C706" s="1" t="s">
-        <v>2178</v>
+        <v>1987</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>2178</v>
+        <v>1987</v>
       </c>
       <c r="E706" s="1"/>
       <c r="F706" s="1"/>
@@ -32391,17 +32581,17 @@
       <c r="Z706" s="1"/>
     </row>
     <row r="707" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A707" s="1" t="s">
-        <v>1985</v>
+      <c r="A707" s="14" t="s">
+        <v>2010</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>2179</v>
+        <v>1988</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>2180</v>
+        <v>1989</v>
       </c>
       <c r="D707" s="1" t="s">
-        <v>2180</v>
+        <v>1989</v>
       </c>
       <c r="E707" s="1"/>
       <c r="F707" s="1"/>
@@ -32427,17 +32617,17 @@
       <c r="Z707" s="1"/>
     </row>
     <row r="708" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A708" s="1" t="s">
-        <v>1985</v>
+      <c r="A708" s="14" t="s">
+        <v>2010</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>2181</v>
+        <v>1990</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>2182</v>
+        <v>1991</v>
       </c>
       <c r="D708" s="1" t="s">
-        <v>2182</v>
+        <v>1991</v>
       </c>
       <c r="E708" s="1"/>
       <c r="F708" s="1"/>
@@ -32463,19 +32653,18 @@
       <c r="Z708" s="1"/>
     </row>
     <row r="709" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A709" s="1" t="s">
-        <v>1985</v>
-      </c>
-      <c r="B709" s="1" t="s">
-        <v>2183</v>
-      </c>
-      <c r="C709" s="1" t="s">
-        <v>2184</v>
-      </c>
-      <c r="D709" s="1" t="s">
-        <v>2184</v>
-      </c>
-      <c r="E709" s="1"/>
+      <c r="A709" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B709" s="12" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C709" s="12" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D709" s="12" t="s">
+        <v>2178</v>
+      </c>
       <c r="F709" s="1"/>
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
@@ -32499,19 +32688,18 @@
       <c r="Z709" s="1"/>
     </row>
     <row r="710" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A710" s="1" t="s">
-        <v>1985</v>
-      </c>
-      <c r="B710" s="1" t="s">
-        <v>2185</v>
-      </c>
-      <c r="C710" s="1" t="s">
-        <v>2186</v>
-      </c>
-      <c r="D710" s="1" t="s">
-        <v>2186</v>
-      </c>
-      <c r="E710" s="1"/>
+      <c r="A710" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B710" s="12" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C710" s="12" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D710" s="12" t="s">
+        <v>2180</v>
+      </c>
       <c r="F710" s="1"/>
       <c r="G710" s="1"/>
       <c r="H710" s="1"/>
@@ -32535,19 +32723,18 @@
       <c r="Z710" s="1"/>
     </row>
     <row r="711" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A711" s="1" t="s">
-        <v>1985</v>
-      </c>
-      <c r="B711" s="1" t="s">
-        <v>2187</v>
-      </c>
-      <c r="C711" s="1" t="s">
-        <v>2188</v>
-      </c>
-      <c r="D711" s="1" t="s">
-        <v>2188</v>
-      </c>
-      <c r="E711" s="1"/>
+      <c r="A711" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B711" s="12" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C711" s="12" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D711" s="12" t="s">
+        <v>2182</v>
+      </c>
       <c r="F711" s="1"/>
       <c r="G711" s="1"/>
       <c r="H711" s="1"/>
@@ -32571,19 +32758,18 @@
       <c r="Z711" s="1"/>
     </row>
     <row r="712" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A712" s="1" t="s">
-        <v>2010</v>
-      </c>
-      <c r="B712" s="1" t="s">
-        <v>1986</v>
-      </c>
-      <c r="C712" s="1" t="s">
-        <v>1987</v>
-      </c>
-      <c r="D712" s="1" t="s">
-        <v>1987</v>
-      </c>
-      <c r="E712" s="1"/>
+      <c r="A712" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B712" s="12" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C712" s="12" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D712" s="12" t="s">
+        <v>2184</v>
+      </c>
       <c r="F712" s="1"/>
       <c r="G712" s="1"/>
       <c r="H712" s="1"/>
@@ -32607,19 +32793,18 @@
       <c r="Z712" s="1"/>
     </row>
     <row r="713" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A713" s="1" t="s">
-        <v>2010</v>
-      </c>
-      <c r="B713" s="1" t="s">
-        <v>1988</v>
-      </c>
-      <c r="C713" s="1" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D713" s="1" t="s">
-        <v>1989</v>
-      </c>
-      <c r="E713" s="1"/>
+      <c r="A713" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B713" s="12" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C713" s="12" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D713" s="12" t="s">
+        <v>2186</v>
+      </c>
       <c r="F713" s="1"/>
       <c r="G713" s="1"/>
       <c r="H713" s="1"/>
@@ -32643,19 +32828,18 @@
       <c r="Z713" s="1"/>
     </row>
     <row r="714" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A714" s="1" t="s">
-        <v>2010</v>
-      </c>
-      <c r="B714" s="1" t="s">
-        <v>1990</v>
-      </c>
-      <c r="C714" s="1" t="s">
-        <v>1991</v>
-      </c>
-      <c r="D714" s="1" t="s">
-        <v>1991</v>
-      </c>
-      <c r="E714" s="1"/>
+      <c r="A714" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B714" s="12" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C714" s="12" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D714" s="12" t="s">
+        <v>2188</v>
+      </c>
       <c r="F714" s="1"/>
       <c r="G714" s="1"/>
       <c r="H714" s="1"/>
@@ -32679,11 +32863,18 @@
       <c r="Z714" s="1"/>
     </row>
     <row r="715" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A715" s="1"/>
-      <c r="B715" s="1"/>
-      <c r="C715" s="1"/>
-      <c r="D715" s="1"/>
-      <c r="E715" s="1"/>
+      <c r="A715" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B715" s="12" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C715" s="12" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D715" s="12" t="s">
+        <v>2190</v>
+      </c>
       <c r="F715" s="1"/>
       <c r="G715" s="1"/>
       <c r="H715" s="1"/>
@@ -32707,11 +32898,18 @@
       <c r="Z715" s="1"/>
     </row>
     <row r="716" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A716" s="1"/>
-      <c r="B716" s="1"/>
-      <c r="C716" s="1"/>
-      <c r="D716" s="1"/>
-      <c r="E716" s="1"/>
+      <c r="A716" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B716" s="12" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C716" s="12" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D716" s="12" t="s">
+        <v>2192</v>
+      </c>
       <c r="F716" s="1"/>
       <c r="G716" s="1"/>
       <c r="H716" s="1"/>
@@ -32735,11 +32933,18 @@
       <c r="Z716" s="1"/>
     </row>
     <row r="717" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A717" s="1"/>
-      <c r="B717" s="1"/>
-      <c r="C717" s="1"/>
-      <c r="D717" s="1"/>
-      <c r="E717" s="1"/>
+      <c r="A717" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B717" s="12" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C717" s="12" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D717" s="12" t="s">
+        <v>2194</v>
+      </c>
       <c r="F717" s="1"/>
       <c r="G717" s="1"/>
       <c r="H717" s="1"/>
@@ -32763,11 +32968,18 @@
       <c r="Z717" s="1"/>
     </row>
     <row r="718" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A718" s="1"/>
-      <c r="B718" s="1"/>
-      <c r="C718" s="1"/>
-      <c r="D718" s="1"/>
-      <c r="E718" s="1"/>
+      <c r="A718" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B718" s="12" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C718" s="12" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D718" s="12" t="s">
+        <v>2196</v>
+      </c>
       <c r="F718" s="1"/>
       <c r="G718" s="1"/>
       <c r="H718" s="1"/>
@@ -32791,11 +33003,18 @@
       <c r="Z718" s="1"/>
     </row>
     <row r="719" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A719" s="1"/>
-      <c r="B719" s="1"/>
-      <c r="C719" s="1"/>
-      <c r="D719" s="1"/>
-      <c r="E719" s="1"/>
+      <c r="A719" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B719" s="12" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C719" s="12" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D719" s="12" t="s">
+        <v>2198</v>
+      </c>
       <c r="F719" s="1"/>
       <c r="G719" s="1"/>
       <c r="H719" s="1"/>
@@ -32819,11 +33038,18 @@
       <c r="Z719" s="1"/>
     </row>
     <row r="720" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A720" s="1"/>
-      <c r="B720" s="1"/>
-      <c r="C720" s="1"/>
-      <c r="D720" s="1"/>
-      <c r="E720" s="1"/>
+      <c r="A720" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B720" s="12" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C720" s="12" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D720" s="12" t="s">
+        <v>2200</v>
+      </c>
       <c r="F720" s="1"/>
       <c r="G720" s="1"/>
       <c r="H720" s="1"/>
@@ -32847,11 +33073,18 @@
       <c r="Z720" s="1"/>
     </row>
     <row r="721" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A721" s="1"/>
-      <c r="B721" s="1"/>
-      <c r="C721" s="1"/>
-      <c r="D721" s="1"/>
-      <c r="E721" s="1"/>
+      <c r="A721" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B721" s="12" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C721" s="12" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D721" s="12" t="s">
+        <v>2202</v>
+      </c>
       <c r="F721" s="1"/>
       <c r="G721" s="1"/>
       <c r="H721" s="1"/>
@@ -32875,11 +33108,18 @@
       <c r="Z721" s="1"/>
     </row>
     <row r="722" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A722" s="1"/>
-      <c r="B722" s="1"/>
-      <c r="C722" s="1"/>
-      <c r="D722" s="1"/>
-      <c r="E722" s="1"/>
+      <c r="A722" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B722" s="12" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C722" s="12" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D722" s="12" t="s">
+        <v>2204</v>
+      </c>
       <c r="F722" s="1"/>
       <c r="G722" s="1"/>
       <c r="H722" s="1"/>
@@ -32903,11 +33143,18 @@
       <c r="Z722" s="1"/>
     </row>
     <row r="723" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A723" s="1"/>
-      <c r="B723" s="1"/>
-      <c r="C723" s="1"/>
-      <c r="D723" s="1"/>
-      <c r="E723" s="1"/>
+      <c r="A723" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B723" s="12" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C723" s="12" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D723" s="12" t="s">
+        <v>2206</v>
+      </c>
       <c r="F723" s="1"/>
       <c r="G723" s="1"/>
       <c r="H723" s="1"/>
@@ -32931,11 +33178,18 @@
       <c r="Z723" s="1"/>
     </row>
     <row r="724" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A724" s="1"/>
-      <c r="B724" s="1"/>
-      <c r="C724" s="1"/>
-      <c r="D724" s="1"/>
-      <c r="E724" s="1"/>
+      <c r="A724" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B724" s="12" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C724" s="12" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D724" s="12" t="s">
+        <v>2208</v>
+      </c>
       <c r="F724" s="1"/>
       <c r="G724" s="1"/>
       <c r="H724" s="1"/>
@@ -32959,11 +33213,18 @@
       <c r="Z724" s="1"/>
     </row>
     <row r="725" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A725" s="1"/>
-      <c r="B725" s="1"/>
-      <c r="C725" s="1"/>
-      <c r="D725" s="1"/>
-      <c r="E725" s="1"/>
+      <c r="A725" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B725" s="12" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C725" s="12" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D725" s="12" t="s">
+        <v>2210</v>
+      </c>
       <c r="F725" s="1"/>
       <c r="G725" s="1"/>
       <c r="H725" s="1"/>
@@ -32987,11 +33248,18 @@
       <c r="Z725" s="1"/>
     </row>
     <row r="726" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A726" s="1"/>
-      <c r="B726" s="1"/>
-      <c r="C726" s="1"/>
-      <c r="D726" s="1"/>
-      <c r="E726" s="1"/>
+      <c r="A726" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B726" s="12" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C726" s="12" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D726" s="12" t="s">
+        <v>2212</v>
+      </c>
       <c r="F726" s="1"/>
       <c r="G726" s="1"/>
       <c r="H726" s="1"/>
@@ -33015,11 +33283,18 @@
       <c r="Z726" s="1"/>
     </row>
     <row r="727" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A727" s="1"/>
-      <c r="B727" s="1"/>
-      <c r="C727" s="1"/>
-      <c r="D727" s="1"/>
-      <c r="E727" s="1"/>
+      <c r="A727" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B727" s="12" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C727" s="12" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D727" s="12" t="s">
+        <v>2214</v>
+      </c>
       <c r="F727" s="1"/>
       <c r="G727" s="1"/>
       <c r="H727" s="1"/>
@@ -33043,11 +33318,18 @@
       <c r="Z727" s="1"/>
     </row>
     <row r="728" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A728" s="1"/>
-      <c r="B728" s="1"/>
-      <c r="C728" s="1"/>
-      <c r="D728" s="1"/>
-      <c r="E728" s="1"/>
+      <c r="A728" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B728" s="12" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C728" s="12" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D728" s="12" t="s">
+        <v>2216</v>
+      </c>
       <c r="F728" s="1"/>
       <c r="G728" s="1"/>
       <c r="H728" s="1"/>
@@ -33071,11 +33353,18 @@
       <c r="Z728" s="1"/>
     </row>
     <row r="729" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A729" s="1"/>
-      <c r="B729" s="1"/>
-      <c r="C729" s="1"/>
-      <c r="D729" s="1"/>
-      <c r="E729" s="1"/>
+      <c r="A729" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B729" s="12" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C729" s="12" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D729" s="12" t="s">
+        <v>2218</v>
+      </c>
       <c r="F729" s="1"/>
       <c r="G729" s="1"/>
       <c r="H729" s="1"/>
@@ -33099,11 +33388,18 @@
       <c r="Z729" s="1"/>
     </row>
     <row r="730" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A730" s="1"/>
-      <c r="B730" s="1"/>
-      <c r="C730" s="1"/>
-      <c r="D730" s="1"/>
-      <c r="E730" s="1"/>
+      <c r="A730" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B730" s="12" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C730" s="12" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D730" s="12" t="s">
+        <v>2220</v>
+      </c>
       <c r="F730" s="1"/>
       <c r="G730" s="1"/>
       <c r="H730" s="1"/>
@@ -33127,11 +33423,18 @@
       <c r="Z730" s="1"/>
     </row>
     <row r="731" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A731" s="1"/>
-      <c r="B731" s="1"/>
-      <c r="C731" s="1"/>
-      <c r="D731" s="1"/>
-      <c r="E731" s="1"/>
+      <c r="A731" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B731" s="12" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C731" s="12" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D731" s="12" t="s">
+        <v>2222</v>
+      </c>
       <c r="F731" s="1"/>
       <c r="G731" s="1"/>
       <c r="H731" s="1"/>
@@ -33155,11 +33458,18 @@
       <c r="Z731" s="1"/>
     </row>
     <row r="732" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A732" s="1"/>
-      <c r="B732" s="1"/>
-      <c r="C732" s="1"/>
-      <c r="D732" s="1"/>
-      <c r="E732" s="1"/>
+      <c r="A732" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B732" s="12" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C732" s="12" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D732" s="12" t="s">
+        <v>2220</v>
+      </c>
       <c r="F732" s="1"/>
       <c r="G732" s="1"/>
       <c r="H732" s="1"/>
@@ -33183,11 +33493,18 @@
       <c r="Z732" s="1"/>
     </row>
     <row r="733" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A733" s="1"/>
-      <c r="B733" s="1"/>
-      <c r="C733" s="1"/>
-      <c r="D733" s="1"/>
-      <c r="E733" s="1"/>
+      <c r="A733" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B733" s="12" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C733" s="12" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D733" s="12" t="s">
+        <v>2224</v>
+      </c>
       <c r="F733" s="1"/>
       <c r="G733" s="1"/>
       <c r="H733" s="1"/>
@@ -33211,11 +33528,18 @@
       <c r="Z733" s="1"/>
     </row>
     <row r="734" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A734" s="1"/>
-      <c r="B734" s="1"/>
-      <c r="C734" s="1"/>
-      <c r="D734" s="1"/>
-      <c r="E734" s="1"/>
+      <c r="A734" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B734" s="12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C734" s="12" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D734" s="12" t="s">
+        <v>2226</v>
+      </c>
       <c r="F734" s="1"/>
       <c r="G734" s="1"/>
       <c r="H734" s="1"/>
@@ -33239,11 +33563,18 @@
       <c r="Z734" s="1"/>
     </row>
     <row r="735" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A735" s="1"/>
-      <c r="B735" s="1"/>
-      <c r="C735" s="1"/>
-      <c r="D735" s="1"/>
-      <c r="E735" s="1"/>
+      <c r="A735" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B735" s="12" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C735" s="12" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D735" s="12" t="s">
+        <v>2228</v>
+      </c>
       <c r="F735" s="1"/>
       <c r="G735" s="1"/>
       <c r="H735" s="1"/>
@@ -33267,11 +33598,18 @@
       <c r="Z735" s="1"/>
     </row>
     <row r="736" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A736" s="1"/>
-      <c r="B736" s="1"/>
-      <c r="C736" s="1"/>
-      <c r="D736" s="1"/>
-      <c r="E736" s="1"/>
+      <c r="A736" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B736" s="12" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C736" s="12" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D736" s="12" t="s">
+        <v>2230</v>
+      </c>
       <c r="F736" s="1"/>
       <c r="G736" s="1"/>
       <c r="H736" s="1"/>
@@ -33295,11 +33633,18 @@
       <c r="Z736" s="1"/>
     </row>
     <row r="737" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A737" s="1"/>
-      <c r="B737" s="1"/>
-      <c r="C737" s="1"/>
-      <c r="D737" s="1"/>
-      <c r="E737" s="1"/>
+      <c r="A737" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B737" s="12" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C737" s="12" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D737" s="12" t="s">
+        <v>2232</v>
+      </c>
       <c r="F737" s="1"/>
       <c r="G737" s="1"/>
       <c r="H737" s="1"/>
@@ -33323,11 +33668,18 @@
       <c r="Z737" s="1"/>
     </row>
     <row r="738" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A738" s="1"/>
-      <c r="B738" s="1"/>
-      <c r="C738" s="1"/>
-      <c r="D738" s="1"/>
-      <c r="E738" s="1"/>
+      <c r="A738" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B738" s="12" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C738" s="12" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D738" s="12" t="s">
+        <v>2234</v>
+      </c>
       <c r="F738" s="1"/>
       <c r="G738" s="1"/>
       <c r="H738" s="1"/>
@@ -34526,176 +34878,8 @@
       <c r="Y780" s="1"/>
       <c r="Z780" s="1"/>
     </row>
-    <row r="781" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A781" s="1"/>
-      <c r="B781" s="1"/>
-      <c r="C781" s="1"/>
-      <c r="D781" s="1"/>
-      <c r="E781" s="1"/>
-      <c r="F781" s="1"/>
-      <c r="G781" s="1"/>
-      <c r="H781" s="1"/>
-      <c r="I781" s="1"/>
-      <c r="J781" s="1"/>
-      <c r="K781" s="1"/>
-      <c r="L781" s="1"/>
-      <c r="M781" s="1"/>
-      <c r="N781" s="1"/>
-      <c r="O781" s="1"/>
-      <c r="P781" s="1"/>
-      <c r="Q781" s="1"/>
-      <c r="R781" s="1"/>
-      <c r="S781" s="1"/>
-      <c r="T781" s="1"/>
-      <c r="U781" s="1"/>
-      <c r="V781" s="1"/>
-      <c r="W781" s="1"/>
-      <c r="X781" s="1"/>
-      <c r="Y781" s="1"/>
-      <c r="Z781" s="1"/>
-    </row>
-    <row r="782" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A782" s="1"/>
-      <c r="B782" s="1"/>
-      <c r="C782" s="1"/>
-      <c r="D782" s="1"/>
-      <c r="E782" s="1"/>
-      <c r="F782" s="1"/>
-      <c r="G782" s="1"/>
-      <c r="H782" s="1"/>
-      <c r="I782" s="1"/>
-      <c r="J782" s="1"/>
-      <c r="K782" s="1"/>
-      <c r="L782" s="1"/>
-      <c r="M782" s="1"/>
-      <c r="N782" s="1"/>
-      <c r="O782" s="1"/>
-      <c r="P782" s="1"/>
-      <c r="Q782" s="1"/>
-      <c r="R782" s="1"/>
-      <c r="S782" s="1"/>
-      <c r="T782" s="1"/>
-      <c r="U782" s="1"/>
-      <c r="V782" s="1"/>
-      <c r="W782" s="1"/>
-      <c r="X782" s="1"/>
-      <c r="Y782" s="1"/>
-      <c r="Z782" s="1"/>
-    </row>
-    <row r="783" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A783" s="1"/>
-      <c r="B783" s="1"/>
-      <c r="C783" s="1"/>
-      <c r="D783" s="1"/>
-      <c r="E783" s="1"/>
-      <c r="F783" s="1"/>
-      <c r="G783" s="1"/>
-      <c r="H783" s="1"/>
-      <c r="I783" s="1"/>
-      <c r="J783" s="1"/>
-      <c r="K783" s="1"/>
-      <c r="L783" s="1"/>
-      <c r="M783" s="1"/>
-      <c r="N783" s="1"/>
-      <c r="O783" s="1"/>
-      <c r="P783" s="1"/>
-      <c r="Q783" s="1"/>
-      <c r="R783" s="1"/>
-      <c r="S783" s="1"/>
-      <c r="T783" s="1"/>
-      <c r="U783" s="1"/>
-      <c r="V783" s="1"/>
-      <c r="W783" s="1"/>
-      <c r="X783" s="1"/>
-      <c r="Y783" s="1"/>
-      <c r="Z783" s="1"/>
-    </row>
-    <row r="784" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A784" s="1"/>
-      <c r="B784" s="1"/>
-      <c r="C784" s="1"/>
-      <c r="D784" s="1"/>
-      <c r="E784" s="1"/>
-      <c r="F784" s="1"/>
-      <c r="G784" s="1"/>
-      <c r="H784" s="1"/>
-      <c r="I784" s="1"/>
-      <c r="J784" s="1"/>
-      <c r="K784" s="1"/>
-      <c r="L784" s="1"/>
-      <c r="M784" s="1"/>
-      <c r="N784" s="1"/>
-      <c r="O784" s="1"/>
-      <c r="P784" s="1"/>
-      <c r="Q784" s="1"/>
-      <c r="R784" s="1"/>
-      <c r="S784" s="1"/>
-      <c r="T784" s="1"/>
-      <c r="U784" s="1"/>
-      <c r="V784" s="1"/>
-      <c r="W784" s="1"/>
-      <c r="X784" s="1"/>
-      <c r="Y784" s="1"/>
-      <c r="Z784" s="1"/>
-    </row>
-    <row r="785" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A785" s="1"/>
-      <c r="B785" s="1"/>
-      <c r="C785" s="1"/>
-      <c r="D785" s="1"/>
-      <c r="E785" s="1"/>
-      <c r="F785" s="1"/>
-      <c r="G785" s="1"/>
-      <c r="H785" s="1"/>
-      <c r="I785" s="1"/>
-      <c r="J785" s="1"/>
-      <c r="K785" s="1"/>
-      <c r="L785" s="1"/>
-      <c r="M785" s="1"/>
-      <c r="N785" s="1"/>
-      <c r="O785" s="1"/>
-      <c r="P785" s="1"/>
-      <c r="Q785" s="1"/>
-      <c r="R785" s="1"/>
-      <c r="S785" s="1"/>
-      <c r="T785" s="1"/>
-      <c r="U785" s="1"/>
-      <c r="V785" s="1"/>
-      <c r="W785" s="1"/>
-      <c r="X785" s="1"/>
-      <c r="Y785" s="1"/>
-      <c r="Z785" s="1"/>
-    </row>
-    <row r="786" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A786" s="1"/>
-      <c r="B786" s="1"/>
-      <c r="C786" s="1"/>
-      <c r="D786" s="1"/>
-      <c r="E786" s="1"/>
-      <c r="F786" s="1"/>
-      <c r="G786" s="1"/>
-      <c r="H786" s="1"/>
-      <c r="I786" s="1"/>
-      <c r="J786" s="1"/>
-      <c r="K786" s="1"/>
-      <c r="L786" s="1"/>
-      <c r="M786" s="1"/>
-      <c r="N786" s="1"/>
-      <c r="O786" s="1"/>
-      <c r="P786" s="1"/>
-      <c r="Q786" s="1"/>
-      <c r="R786" s="1"/>
-      <c r="S786" s="1"/>
-      <c r="T786" s="1"/>
-      <c r="U786" s="1"/>
-      <c r="V786" s="1"/>
-      <c r="W786" s="1"/>
-      <c r="X786" s="1"/>
-      <c r="Y786" s="1"/>
-      <c r="Z786" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/Listes_indicateurs_annuaire_stat.xlsx
+++ b/Listes_indicateurs_annuaire_stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\monprojet1_annuaire\Production-statistique-MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273B14A4-FF4E-4530-9A59-DAE767E39861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DBF626-478F-45D6-9A41-20D1FD26B265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="2243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="2267">
   <si>
     <t>listes_indicateurs</t>
   </si>
@@ -6770,6 +6770,78 @@
   </si>
   <si>
     <t>Obc-PVVIH ayant participé aux groupes de parole</t>
+  </si>
+  <si>
+    <t>Oh4nOTPDyYT</t>
+  </si>
+  <si>
+    <t>Activités d'IEC réalisées surTuberculose_Obc</t>
+  </si>
+  <si>
+    <t>SOzMaOoKYiV</t>
+  </si>
+  <si>
+    <t>Personnes touchées par les séances d'IEC sur la  Tuberculose_Obc</t>
+  </si>
+  <si>
+    <t>Obc-Personnes touchées par les séances d'IEC sur la  Tuberculose</t>
+  </si>
+  <si>
+    <t>Obc-Activités d'IEC réalisées surTuberculose_Obc</t>
+  </si>
+  <si>
+    <t>pA8xsQcCQJM</t>
+  </si>
+  <si>
+    <t>Personnes référées pour toux de plus de 14 jours_Obc</t>
+  </si>
+  <si>
+    <t>AJOagzS3KzW</t>
+  </si>
+  <si>
+    <t>Enfants de moins de 5 ans contact référés pour le dépistage_Obc</t>
+  </si>
+  <si>
+    <t>UAZK8g0We0T</t>
+  </si>
+  <si>
+    <t>Patients dépistés tuberculeux parmi les référés_Obc</t>
+  </si>
+  <si>
+    <t>ALY2wRceonY</t>
+  </si>
+  <si>
+    <t>Patients tuberculeux absents au traitement à rechercher_Obc</t>
+  </si>
+  <si>
+    <t>z5zDlTd1oIU</t>
+  </si>
+  <si>
+    <t>Patients tuberculeux absents au traitement retrouvés_Obc</t>
+  </si>
+  <si>
+    <t>u5XsrDgWoFj</t>
+  </si>
+  <si>
+    <t>Visites à domicile réalisées aux personnes_TB_Obc</t>
+  </si>
+  <si>
+    <t>Obc-Personnes référées pour toux de plus de 14 jours</t>
+  </si>
+  <si>
+    <t>Obc-Enfants de moins de 5 ans contact référés pour le dépistage</t>
+  </si>
+  <si>
+    <t>Obc-Patients dépistés tuberculeux parmi les référés</t>
+  </si>
+  <si>
+    <t>Obc-Patients tuberculeux absents au traitement à rechercher</t>
+  </si>
+  <si>
+    <t>Obc-Patients tuberculeux absents au traitement retrouvés</t>
+  </si>
+  <si>
+    <t>Obc-Visites à domicile réalisées aux personnes_TB</t>
   </si>
 </sst>
 </file>
@@ -6899,7 +6971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6929,9 +7001,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -7148,17 +7217,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z780"/>
+  <dimension ref="A1:Z782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A703" workbookViewId="0">
-      <selection activeCell="C715" sqref="C715"/>
+    <sheetView tabSelected="1" topLeftCell="A731" workbookViewId="0">
+      <selection activeCell="C745" sqref="C745"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="60.42578125" customWidth="1"/>
+    <col min="3" max="3" width="78.42578125" customWidth="1"/>
     <col min="4" max="4" width="54.7109375" customWidth="1"/>
     <col min="5" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="26" width="10.7109375" customWidth="1"/>
@@ -10660,13 +10729,13 @@
       <c r="A98" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="1" t="s">
         <v>295</v>
       </c>
       <c r="E98" s="1"/>
@@ -32113,13 +32182,13 @@
       <c r="Z693" s="1"/>
     </row>
     <row r="694" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A694" s="14" t="s">
+      <c r="A694" s="1" t="s">
         <v>1985</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>1986</v>
       </c>
-      <c r="C694" s="16" t="s">
+      <c r="C694" s="13" t="s">
         <v>1987</v>
       </c>
       <c r="D694" s="1" t="s">
@@ -32149,13 +32218,13 @@
       <c r="Z694" s="1"/>
     </row>
     <row r="695" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A695" s="14" t="s">
+      <c r="A695" s="1" t="s">
         <v>1985</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>1988</v>
       </c>
-      <c r="C695" s="16" t="s">
+      <c r="C695" s="13" t="s">
         <v>1989</v>
       </c>
       <c r="D695" s="1" t="s">
@@ -32185,13 +32254,13 @@
       <c r="Z695" s="1"/>
     </row>
     <row r="696" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A696" s="14" t="s">
+      <c r="A696" s="1" t="s">
         <v>1985</v>
       </c>
       <c r="B696" s="1" t="s">
         <v>1990</v>
       </c>
-      <c r="C696" s="16" t="s">
+      <c r="C696" s="13" t="s">
         <v>1991</v>
       </c>
       <c r="D696" s="1" t="s">
@@ -32221,13 +32290,13 @@
       <c r="Z696" s="1"/>
     </row>
     <row r="697" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A697" s="14" t="s">
+      <c r="A697" s="1" t="s">
         <v>1985</v>
       </c>
       <c r="B697" s="1" t="s">
         <v>1992</v>
       </c>
-      <c r="C697" s="16" t="s">
+      <c r="C697" s="13" t="s">
         <v>1993</v>
       </c>
       <c r="D697" s="1" t="s">
@@ -32257,13 +32326,13 @@
       <c r="Z697" s="1"/>
     </row>
     <row r="698" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A698" s="14" t="s">
+      <c r="A698" s="1" t="s">
         <v>1985</v>
       </c>
       <c r="B698" s="1" t="s">
         <v>1994</v>
       </c>
-      <c r="C698" s="16" t="s">
+      <c r="C698" s="13" t="s">
         <v>1995</v>
       </c>
       <c r="D698" s="1" t="s">
@@ -32293,13 +32362,13 @@
       <c r="Z698" s="1"/>
     </row>
     <row r="699" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A699" s="14" t="s">
+      <c r="A699" s="1" t="s">
         <v>1985</v>
       </c>
       <c r="B699" s="1" t="s">
         <v>1996</v>
       </c>
-      <c r="C699" s="16" t="s">
+      <c r="C699" s="13" t="s">
         <v>1997</v>
       </c>
       <c r="D699" s="1" t="s">
@@ -32329,13 +32398,13 @@
       <c r="Z699" s="1"/>
     </row>
     <row r="700" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A700" s="14" t="s">
+      <c r="A700" s="1" t="s">
         <v>1985</v>
       </c>
       <c r="B700" s="1" t="s">
         <v>1998</v>
       </c>
-      <c r="C700" s="16" t="s">
+      <c r="C700" s="13" t="s">
         <v>1999</v>
       </c>
       <c r="D700" s="1" t="s">
@@ -32365,13 +32434,13 @@
       <c r="Z700" s="1"/>
     </row>
     <row r="701" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A701" s="14" t="s">
+      <c r="A701" s="1" t="s">
         <v>1985</v>
       </c>
       <c r="B701" s="1" t="s">
         <v>2000</v>
       </c>
-      <c r="C701" s="16" t="s">
+      <c r="C701" s="13" t="s">
         <v>2001</v>
       </c>
       <c r="D701" s="1" t="s">
@@ -32401,13 +32470,13 @@
       <c r="Z701" s="1"/>
     </row>
     <row r="702" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A702" s="14" t="s">
+      <c r="A702" s="1" t="s">
         <v>1985</v>
       </c>
       <c r="B702" s="1" t="s">
         <v>2002</v>
       </c>
-      <c r="C702" s="16" t="s">
+      <c r="C702" s="13" t="s">
         <v>2003</v>
       </c>
       <c r="D702" s="1" t="s">
@@ -32437,7 +32506,7 @@
       <c r="Z702" s="1"/>
     </row>
     <row r="703" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A703" s="14" t="s">
+      <c r="A703" s="1" t="s">
         <v>1985</v>
       </c>
       <c r="B703" s="1" t="s">
@@ -32473,7 +32542,7 @@
       <c r="Z703" s="1"/>
     </row>
     <row r="704" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A704" s="14" t="s">
+      <c r="A704" s="1" t="s">
         <v>1985</v>
       </c>
       <c r="B704" s="1" t="s">
@@ -32509,7 +32578,7 @@
       <c r="Z704" s="1"/>
     </row>
     <row r="705" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A705" s="14" t="s">
+      <c r="A705" s="1" t="s">
         <v>1985</v>
       </c>
       <c r="B705" s="1" t="s">
@@ -32545,7 +32614,7 @@
       <c r="Z705" s="1"/>
     </row>
     <row r="706" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A706" s="14" t="s">
+      <c r="A706" s="1" t="s">
         <v>2010</v>
       </c>
       <c r="B706" s="1" t="s">
@@ -32581,7 +32650,7 @@
       <c r="Z706" s="1"/>
     </row>
     <row r="707" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A707" s="14" t="s">
+      <c r="A707" s="1" t="s">
         <v>2010</v>
       </c>
       <c r="B707" s="1" t="s">
@@ -32617,7 +32686,7 @@
       <c r="Z707" s="1"/>
     </row>
     <row r="708" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A708" s="14" t="s">
+      <c r="A708" s="1" t="s">
         <v>2010</v>
       </c>
       <c r="B708" s="1" t="s">
@@ -32653,7 +32722,7 @@
       <c r="Z708" s="1"/>
     </row>
     <row r="709" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A709" s="13" t="s">
+      <c r="A709" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B709" s="12" t="s">
@@ -32688,7 +32757,7 @@
       <c r="Z709" s="1"/>
     </row>
     <row r="710" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A710" s="13" t="s">
+      <c r="A710" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B710" s="12" t="s">
@@ -32723,7 +32792,7 @@
       <c r="Z710" s="1"/>
     </row>
     <row r="711" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A711" s="13" t="s">
+      <c r="A711" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B711" s="12" t="s">
@@ -32758,7 +32827,7 @@
       <c r="Z711" s="1"/>
     </row>
     <row r="712" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A712" s="13" t="s">
+      <c r="A712" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B712" s="12" t="s">
@@ -32793,7 +32862,7 @@
       <c r="Z712" s="1"/>
     </row>
     <row r="713" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A713" s="13" t="s">
+      <c r="A713" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B713" s="12" t="s">
@@ -32828,7 +32897,7 @@
       <c r="Z713" s="1"/>
     </row>
     <row r="714" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A714" s="13" t="s">
+      <c r="A714" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B714" s="12" t="s">
@@ -32863,7 +32932,7 @@
       <c r="Z714" s="1"/>
     </row>
     <row r="715" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A715" s="13" t="s">
+      <c r="A715" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B715" s="12" t="s">
@@ -32898,17 +32967,17 @@
       <c r="Z715" s="1"/>
     </row>
     <row r="716" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A716" s="13" t="s">
+      <c r="A716" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B716" s="12" t="s">
-        <v>2191</v>
+        <v>2243</v>
       </c>
       <c r="C716" s="12" t="s">
-        <v>2192</v>
+        <v>2248</v>
       </c>
       <c r="D716" s="12" t="s">
-        <v>2192</v>
+        <v>2244</v>
       </c>
       <c r="F716" s="1"/>
       <c r="G716" s="1"/>
@@ -32933,17 +33002,17 @@
       <c r="Z716" s="1"/>
     </row>
     <row r="717" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A717" s="13" t="s">
+      <c r="A717" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B717" s="12" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="C717" s="12" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="D717" s="12" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="F717" s="1"/>
       <c r="G717" s="1"/>
@@ -32968,17 +33037,17 @@
       <c r="Z717" s="1"/>
     </row>
     <row r="718" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A718" s="13" t="s">
+      <c r="A718" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B718" s="12" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="C718" s="12" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="D718" s="12" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="F718" s="1"/>
       <c r="G718" s="1"/>
@@ -33003,17 +33072,17 @@
       <c r="Z718" s="1"/>
     </row>
     <row r="719" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A719" s="13" t="s">
+      <c r="A719" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B719" s="12" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="C719" s="12" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="D719" s="12" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="F719" s="1"/>
       <c r="G719" s="1"/>
@@ -33038,17 +33107,17 @@
       <c r="Z719" s="1"/>
     </row>
     <row r="720" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A720" s="13" t="s">
+      <c r="A720" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B720" s="12" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="C720" s="12" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="D720" s="12" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="F720" s="1"/>
       <c r="G720" s="1"/>
@@ -33073,17 +33142,17 @@
       <c r="Z720" s="1"/>
     </row>
     <row r="721" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A721" s="13" t="s">
+      <c r="A721" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B721" s="12" t="s">
-        <v>2201</v>
+        <v>2245</v>
       </c>
       <c r="C721" s="12" t="s">
-        <v>2202</v>
+        <v>2247</v>
       </c>
       <c r="D721" s="12" t="s">
-        <v>2202</v>
+        <v>2246</v>
       </c>
       <c r="F721" s="1"/>
       <c r="G721" s="1"/>
@@ -33108,17 +33177,17 @@
       <c r="Z721" s="1"/>
     </row>
     <row r="722" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A722" s="13" t="s">
+      <c r="A722" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B722" s="12" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
       <c r="C722" s="12" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="D722" s="12" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="F722" s="1"/>
       <c r="G722" s="1"/>
@@ -33143,17 +33212,17 @@
       <c r="Z722" s="1"/>
     </row>
     <row r="723" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A723" s="13" t="s">
+      <c r="A723" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B723" s="12" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
       <c r="C723" s="12" t="s">
-        <v>2241</v>
+        <v>2202</v>
       </c>
       <c r="D723" s="12" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
       <c r="F723" s="1"/>
       <c r="G723" s="1"/>
@@ -33178,17 +33247,17 @@
       <c r="Z723" s="1"/>
     </row>
     <row r="724" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A724" s="13" t="s">
+      <c r="A724" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B724" s="12" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
       <c r="C724" s="12" t="s">
-        <v>2242</v>
+        <v>2204</v>
       </c>
       <c r="D724" s="12" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="F724" s="1"/>
       <c r="G724" s="1"/>
@@ -33213,17 +33282,17 @@
       <c r="Z724" s="1"/>
     </row>
     <row r="725" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A725" s="13" t="s">
+      <c r="A725" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B725" s="12" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="C725" s="12" t="s">
-        <v>2210</v>
+        <v>2241</v>
       </c>
       <c r="D725" s="12" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
       <c r="F725" s="1"/>
       <c r="G725" s="1"/>
@@ -33248,17 +33317,17 @@
       <c r="Z725" s="1"/>
     </row>
     <row r="726" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A726" s="13" t="s">
+      <c r="A726" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B726" s="12" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="C726" s="12" t="s">
-        <v>2212</v>
+        <v>2242</v>
       </c>
       <c r="D726" s="12" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="F726" s="1"/>
       <c r="G726" s="1"/>
@@ -33283,17 +33352,17 @@
       <c r="Z726" s="1"/>
     </row>
     <row r="727" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A727" s="13" t="s">
+      <c r="A727" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B727" s="12" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
       <c r="C727" s="12" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="D727" s="12" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="F727" s="1"/>
       <c r="G727" s="1"/>
@@ -33318,17 +33387,17 @@
       <c r="Z727" s="1"/>
     </row>
     <row r="728" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A728" s="13" t="s">
+      <c r="A728" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B728" s="12" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
       <c r="C728" s="12" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="D728" s="12" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="F728" s="1"/>
       <c r="G728" s="1"/>
@@ -33353,17 +33422,17 @@
       <c r="Z728" s="1"/>
     </row>
     <row r="729" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A729" s="13" t="s">
+      <c r="A729" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B729" s="12" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="C729" s="12" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
       <c r="D729" s="12" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
       <c r="F729" s="1"/>
       <c r="G729" s="1"/>
@@ -33388,17 +33457,17 @@
       <c r="Z729" s="1"/>
     </row>
     <row r="730" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A730" s="13" t="s">
+      <c r="A730" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B730" s="12" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="C730" s="12" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="D730" s="12" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="F730" s="1"/>
       <c r="G730" s="1"/>
@@ -33423,17 +33492,17 @@
       <c r="Z730" s="1"/>
     </row>
     <row r="731" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A731" s="13" t="s">
+      <c r="A731" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B731" s="12" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="C731" s="12" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="D731" s="12" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="F731" s="1"/>
       <c r="G731" s="1"/>
@@ -33458,7 +33527,7 @@
       <c r="Z731" s="1"/>
     </row>
     <row r="732" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A732" s="13" t="s">
+      <c r="A732" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B732" s="12" t="s">
@@ -33493,17 +33562,17 @@
       <c r="Z732" s="1"/>
     </row>
     <row r="733" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A733" s="13" t="s">
+      <c r="A733" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B733" s="12" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="C733" s="12" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="D733" s="12" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="F733" s="1"/>
       <c r="G733" s="1"/>
@@ -33528,17 +33597,17 @@
       <c r="Z733" s="1"/>
     </row>
     <row r="734" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A734" s="13" t="s">
+      <c r="A734" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B734" s="12" t="s">
-        <v>2225</v>
+        <v>2219</v>
       </c>
       <c r="C734" s="12" t="s">
-        <v>2226</v>
+        <v>2220</v>
       </c>
       <c r="D734" s="12" t="s">
-        <v>2226</v>
+        <v>2220</v>
       </c>
       <c r="F734" s="1"/>
       <c r="G734" s="1"/>
@@ -33563,17 +33632,17 @@
       <c r="Z734" s="1"/>
     </row>
     <row r="735" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A735" s="13" t="s">
+      <c r="A735" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B735" s="12" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="C735" s="12" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="D735" s="12" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="F735" s="1"/>
       <c r="G735" s="1"/>
@@ -33598,17 +33667,17 @@
       <c r="Z735" s="1"/>
     </row>
     <row r="736" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A736" s="13" t="s">
+      <c r="A736" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B736" s="12" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="C736" s="12" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
       <c r="D736" s="12" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
       <c r="F736" s="1"/>
       <c r="G736" s="1"/>
@@ -33633,17 +33702,17 @@
       <c r="Z736" s="1"/>
     </row>
     <row r="737" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A737" s="13" t="s">
+      <c r="A737" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B737" s="12" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="C737" s="12" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="D737" s="12" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="F737" s="1"/>
       <c r="G737" s="1"/>
@@ -33668,17 +33737,17 @@
       <c r="Z737" s="1"/>
     </row>
     <row r="738" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A738" s="13" t="s">
+      <c r="A738" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B738" s="12" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="C738" s="12" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
       <c r="D738" s="12" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
       <c r="F738" s="1"/>
       <c r="G738" s="1"/>
@@ -33703,11 +33772,18 @@
       <c r="Z738" s="1"/>
     </row>
     <row r="739" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A739" s="1"/>
-      <c r="B739" s="1"/>
-      <c r="C739" s="1"/>
-      <c r="D739" s="1"/>
-      <c r="E739" s="1"/>
+      <c r="A739" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B739" s="12" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C739" s="12" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D739" s="12" t="s">
+        <v>2232</v>
+      </c>
       <c r="F739" s="1"/>
       <c r="G739" s="1"/>
       <c r="H739" s="1"/>
@@ -33731,11 +33807,18 @@
       <c r="Z739" s="1"/>
     </row>
     <row r="740" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A740" s="1"/>
-      <c r="B740" s="1"/>
-      <c r="C740" s="1"/>
-      <c r="D740" s="1"/>
-      <c r="E740" s="1"/>
+      <c r="A740" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B740" s="12" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C740" s="12" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D740" s="12" t="s">
+        <v>2234</v>
+      </c>
       <c r="F740" s="1"/>
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
@@ -33759,10 +33842,18 @@
       <c r="Z740" s="1"/>
     </row>
     <row r="741" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A741" s="1"/>
-      <c r="B741" s="1"/>
-      <c r="C741" s="1"/>
-      <c r="D741" s="1"/>
+      <c r="A741" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>2250</v>
+      </c>
       <c r="E741" s="1"/>
       <c r="F741" s="1"/>
       <c r="G741" s="1"/>
@@ -33787,10 +33878,18 @@
       <c r="Z741" s="1"/>
     </row>
     <row r="742" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A742" s="1"/>
-      <c r="B742" s="1"/>
-      <c r="C742" s="1"/>
-      <c r="D742" s="1"/>
+      <c r="A742" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>2252</v>
+      </c>
       <c r="E742" s="1"/>
       <c r="F742" s="1"/>
       <c r="G742" s="1"/>
@@ -33815,10 +33914,18 @@
       <c r="Z742" s="1"/>
     </row>
     <row r="743" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A743" s="1"/>
-      <c r="B743" s="1"/>
-      <c r="C743" s="1"/>
-      <c r="D743" s="1"/>
+      <c r="A743" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>2254</v>
+      </c>
       <c r="E743" s="1"/>
       <c r="F743" s="1"/>
       <c r="G743" s="1"/>
@@ -33843,10 +33950,18 @@
       <c r="Z743" s="1"/>
     </row>
     <row r="744" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A744" s="1"/>
-      <c r="B744" s="1"/>
-      <c r="C744" s="1"/>
-      <c r="D744" s="1"/>
+      <c r="A744" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>2256</v>
+      </c>
       <c r="E744" s="1"/>
       <c r="F744" s="1"/>
       <c r="G744" s="1"/>
@@ -33871,10 +33986,18 @@
       <c r="Z744" s="1"/>
     </row>
     <row r="745" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A745" s="1"/>
-      <c r="B745" s="1"/>
-      <c r="C745" s="1"/>
-      <c r="D745" s="1"/>
+      <c r="A745" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>2258</v>
+      </c>
       <c r="E745" s="1"/>
       <c r="F745" s="1"/>
       <c r="G745" s="1"/>
@@ -33899,10 +34022,18 @@
       <c r="Z745" s="1"/>
     </row>
     <row r="746" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A746" s="1"/>
-      <c r="B746" s="1"/>
-      <c r="C746" s="1"/>
-      <c r="D746" s="1"/>
+      <c r="A746" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>2260</v>
+      </c>
       <c r="E746" s="1"/>
       <c r="F746" s="1"/>
       <c r="G746" s="1"/>
@@ -34878,6 +35009,62 @@
       <c r="Y780" s="1"/>
       <c r="Z780" s="1"/>
     </row>
+    <row r="781" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A781" s="1"/>
+      <c r="B781" s="1"/>
+      <c r="C781" s="1"/>
+      <c r="D781" s="1"/>
+      <c r="E781" s="1"/>
+      <c r="F781" s="1"/>
+      <c r="G781" s="1"/>
+      <c r="H781" s="1"/>
+      <c r="I781" s="1"/>
+      <c r="J781" s="1"/>
+      <c r="K781" s="1"/>
+      <c r="L781" s="1"/>
+      <c r="M781" s="1"/>
+      <c r="N781" s="1"/>
+      <c r="O781" s="1"/>
+      <c r="P781" s="1"/>
+      <c r="Q781" s="1"/>
+      <c r="R781" s="1"/>
+      <c r="S781" s="1"/>
+      <c r="T781" s="1"/>
+      <c r="U781" s="1"/>
+      <c r="V781" s="1"/>
+      <c r="W781" s="1"/>
+      <c r="X781" s="1"/>
+      <c r="Y781" s="1"/>
+      <c r="Z781" s="1"/>
+    </row>
+    <row r="782" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A782" s="1"/>
+      <c r="B782" s="1"/>
+      <c r="C782" s="1"/>
+      <c r="D782" s="1"/>
+      <c r="E782" s="1"/>
+      <c r="F782" s="1"/>
+      <c r="G782" s="1"/>
+      <c r="H782" s="1"/>
+      <c r="I782" s="1"/>
+      <c r="J782" s="1"/>
+      <c r="K782" s="1"/>
+      <c r="L782" s="1"/>
+      <c r="M782" s="1"/>
+      <c r="N782" s="1"/>
+      <c r="O782" s="1"/>
+      <c r="P782" s="1"/>
+      <c r="Q782" s="1"/>
+      <c r="R782" s="1"/>
+      <c r="S782" s="1"/>
+      <c r="T782" s="1"/>
+      <c r="U782" s="1"/>
+      <c r="V782" s="1"/>
+      <c r="W782" s="1"/>
+      <c r="X782" s="1"/>
+      <c r="Y782" s="1"/>
+      <c r="Z782" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Listes_indicateurs_annuaire_stat.xlsx
+++ b/Listes_indicateurs_annuaire_stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\monprojet1_annuaire\Production-statistique-MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DBF626-478F-45D6-9A41-20D1FD26B265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51360557-C7FF-4F53-B6C8-272288BE0B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="2267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3256" uniqueCount="2267">
   <si>
     <t>listes_indicateurs</t>
   </si>
@@ -7217,10 +7217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z782"/>
+  <dimension ref="A1:Z781"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A731" workbookViewId="0">
-      <selection activeCell="C745" sqref="C745"/>
+      <selection activeCell="C739" sqref="C739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -33601,13 +33601,13 @@
         <v>4</v>
       </c>
       <c r="B734" s="12" t="s">
-        <v>2219</v>
+        <v>2223</v>
       </c>
       <c r="C734" s="12" t="s">
-        <v>2220</v>
+        <v>2224</v>
       </c>
       <c r="D734" s="12" t="s">
-        <v>2220</v>
+        <v>2224</v>
       </c>
       <c r="F734" s="1"/>
       <c r="G734" s="1"/>
@@ -33636,13 +33636,13 @@
         <v>4</v>
       </c>
       <c r="B735" s="12" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="C735" s="12" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="D735" s="12" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="F735" s="1"/>
       <c r="G735" s="1"/>
@@ -33671,13 +33671,13 @@
         <v>4</v>
       </c>
       <c r="B736" s="12" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="C736" s="12" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="D736" s="12" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="F736" s="1"/>
       <c r="G736" s="1"/>
@@ -33706,13 +33706,13 @@
         <v>4</v>
       </c>
       <c r="B737" s="12" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="C737" s="12" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="D737" s="12" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="F737" s="1"/>
       <c r="G737" s="1"/>
@@ -33741,13 +33741,13 @@
         <v>4</v>
       </c>
       <c r="B738" s="12" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="C738" s="12" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="D738" s="12" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="F738" s="1"/>
       <c r="G738" s="1"/>
@@ -33776,13 +33776,13 @@
         <v>4</v>
       </c>
       <c r="B739" s="12" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="C739" s="12" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="D739" s="12" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="F739" s="1"/>
       <c r="G739" s="1"/>
@@ -33810,15 +33810,16 @@
       <c r="A740" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B740" s="12" t="s">
-        <v>2233</v>
-      </c>
-      <c r="C740" s="12" t="s">
-        <v>2234</v>
-      </c>
-      <c r="D740" s="12" t="s">
-        <v>2234</v>
-      </c>
+      <c r="B740" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C740" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E740" s="1"/>
       <c r="F740" s="1"/>
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
@@ -33846,13 +33847,13 @@
         <v>4</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="C741" s="1" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="D741" s="1" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="E741" s="1"/>
       <c r="F741" s="1"/>
@@ -33882,13 +33883,13 @@
         <v>4</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="D742" s="1" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="E742" s="1"/>
       <c r="F742" s="1"/>
@@ -33918,13 +33919,13 @@
         <v>4</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="C743" s="1" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="D743" s="1" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="E743" s="1"/>
       <c r="F743" s="1"/>
@@ -33954,13 +33955,13 @@
         <v>4</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="D744" s="1" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="E744" s="1"/>
       <c r="F744" s="1"/>
@@ -33990,13 +33991,13 @@
         <v>4</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="C745" s="1" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="D745" s="1" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="E745" s="1"/>
       <c r="F745" s="1"/>
@@ -34022,18 +34023,10 @@
       <c r="Z745" s="1"/>
     </row>
     <row r="746" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A746" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B746" s="1" t="s">
-        <v>2259</v>
-      </c>
-      <c r="C746" s="1" t="s">
-        <v>2266</v>
-      </c>
-      <c r="D746" s="1" t="s">
-        <v>2260</v>
-      </c>
+      <c r="A746" s="1"/>
+      <c r="B746" s="1"/>
+      <c r="C746" s="1"/>
+      <c r="D746" s="1"/>
       <c r="E746" s="1"/>
       <c r="F746" s="1"/>
       <c r="G746" s="1"/>
@@ -35037,34 +35030,6 @@
       <c r="Y781" s="1"/>
       <c r="Z781" s="1"/>
     </row>
-    <row r="782" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A782" s="1"/>
-      <c r="B782" s="1"/>
-      <c r="C782" s="1"/>
-      <c r="D782" s="1"/>
-      <c r="E782" s="1"/>
-      <c r="F782" s="1"/>
-      <c r="G782" s="1"/>
-      <c r="H782" s="1"/>
-      <c r="I782" s="1"/>
-      <c r="J782" s="1"/>
-      <c r="K782" s="1"/>
-      <c r="L782" s="1"/>
-      <c r="M782" s="1"/>
-      <c r="N782" s="1"/>
-      <c r="O782" s="1"/>
-      <c r="P782" s="1"/>
-      <c r="Q782" s="1"/>
-      <c r="R782" s="1"/>
-      <c r="S782" s="1"/>
-      <c r="T782" s="1"/>
-      <c r="U782" s="1"/>
-      <c r="V782" s="1"/>
-      <c r="W782" s="1"/>
-      <c r="X782" s="1"/>
-      <c r="Y782" s="1"/>
-      <c r="Z782" s="1"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Listes_indicateurs_annuaire_stat.xlsx
+++ b/Listes_indicateurs_annuaire_stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\monprojet1_annuaire\Production-statistique-MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51360557-C7FF-4F53-B6C8-272288BE0B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DA9B36-10D2-42EB-962F-0D2A3B68F839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3256" uniqueCount="2267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="2275">
   <si>
     <t>listes_indicateurs</t>
   </si>
@@ -6842,6 +6842,30 @@
   </si>
   <si>
     <t>Obc-Visites à domicile réalisées aux personnes_TB</t>
+  </si>
+  <si>
+    <t>mHC8H156nPt</t>
+  </si>
+  <si>
+    <t>Obc-Gites larvaires ménages détruits</t>
+  </si>
+  <si>
+    <t>nlk8igitkCJ</t>
+  </si>
+  <si>
+    <t>Obc-Gites larvaires ménages identifiés</t>
+  </si>
+  <si>
+    <t>EvJsn8B3IqO</t>
+  </si>
+  <si>
+    <t>Obc-Personnes ayant dormi sous MILDA la nuit derniere</t>
+  </si>
+  <si>
+    <t>UEmYaRZPQwE</t>
+  </si>
+  <si>
+    <t>Obc-Personnes dans les menages</t>
   </si>
 </sst>
 </file>
@@ -7006,7 +7030,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -7217,16 +7252,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z781"/>
+  <dimension ref="A1:Z779"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A731" workbookViewId="0">
-      <selection activeCell="C739" sqref="C739"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A733" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C750" sqref="C750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="78.42578125" customWidth="1"/>
     <col min="4" max="4" width="54.7109375" customWidth="1"/>
     <col min="5" max="6" width="10.85546875" customWidth="1"/>
@@ -34023,10 +34059,18 @@
       <c r="Z745" s="1"/>
     </row>
     <row r="746" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A746" s="1"/>
-      <c r="B746" s="1"/>
-      <c r="C746" s="1"/>
-      <c r="D746" s="1"/>
+      <c r="A746" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>2270</v>
+      </c>
       <c r="E746" s="1"/>
       <c r="F746" s="1"/>
       <c r="G746" s="1"/>
@@ -34051,10 +34095,18 @@
       <c r="Z746" s="1"/>
     </row>
     <row r="747" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A747" s="1"/>
-      <c r="B747" s="1"/>
-      <c r="C747" s="1"/>
-      <c r="D747" s="1"/>
+      <c r="A747" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>2268</v>
+      </c>
       <c r="E747" s="1"/>
       <c r="F747" s="1"/>
       <c r="G747" s="1"/>
@@ -34079,10 +34131,18 @@
       <c r="Z747" s="1"/>
     </row>
     <row r="748" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A748" s="1"/>
-      <c r="B748" s="1"/>
-      <c r="C748" s="1"/>
-      <c r="D748" s="1"/>
+      <c r="A748" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>2274</v>
+      </c>
       <c r="E748" s="1"/>
       <c r="F748" s="1"/>
       <c r="G748" s="1"/>
@@ -34107,10 +34167,18 @@
       <c r="Z748" s="1"/>
     </row>
     <row r="749" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A749" s="1"/>
-      <c r="B749" s="1"/>
-      <c r="C749" s="1"/>
-      <c r="D749" s="1"/>
+      <c r="A749" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C749" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>2272</v>
+      </c>
       <c r="E749" s="1"/>
       <c r="F749" s="1"/>
       <c r="G749" s="1"/>
@@ -34974,64 +35042,11 @@
       <c r="Y779" s="1"/>
       <c r="Z779" s="1"/>
     </row>
-    <row r="780" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A780" s="1"/>
-      <c r="B780" s="1"/>
-      <c r="C780" s="1"/>
-      <c r="D780" s="1"/>
-      <c r="E780" s="1"/>
-      <c r="F780" s="1"/>
-      <c r="G780" s="1"/>
-      <c r="H780" s="1"/>
-      <c r="I780" s="1"/>
-      <c r="J780" s="1"/>
-      <c r="K780" s="1"/>
-      <c r="L780" s="1"/>
-      <c r="M780" s="1"/>
-      <c r="N780" s="1"/>
-      <c r="O780" s="1"/>
-      <c r="P780" s="1"/>
-      <c r="Q780" s="1"/>
-      <c r="R780" s="1"/>
-      <c r="S780" s="1"/>
-      <c r="T780" s="1"/>
-      <c r="U780" s="1"/>
-      <c r="V780" s="1"/>
-      <c r="W780" s="1"/>
-      <c r="X780" s="1"/>
-      <c r="Y780" s="1"/>
-      <c r="Z780" s="1"/>
-    </row>
-    <row r="781" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A781" s="1"/>
-      <c r="B781" s="1"/>
-      <c r="C781" s="1"/>
-      <c r="D781" s="1"/>
-      <c r="E781" s="1"/>
-      <c r="F781" s="1"/>
-      <c r="G781" s="1"/>
-      <c r="H781" s="1"/>
-      <c r="I781" s="1"/>
-      <c r="J781" s="1"/>
-      <c r="K781" s="1"/>
-      <c r="L781" s="1"/>
-      <c r="M781" s="1"/>
-      <c r="N781" s="1"/>
-      <c r="O781" s="1"/>
-      <c r="P781" s="1"/>
-      <c r="Q781" s="1"/>
-      <c r="R781" s="1"/>
-      <c r="S781" s="1"/>
-      <c r="T781" s="1"/>
-      <c r="U781" s="1"/>
-      <c r="V781" s="1"/>
-      <c r="W781" s="1"/>
-      <c r="X781" s="1"/>
-      <c r="Y781" s="1"/>
-      <c r="Z781" s="1"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/Listes_indicateurs_annuaire_stat.xlsx
+++ b/Listes_indicateurs_annuaire_stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\monprojet1_annuaire\Production-statistique-MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DA9B36-10D2-42EB-962F-0D2A3B68F839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C37258-ADDA-417A-A92C-69EC9EA9D90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7255,8 +7255,8 @@
   <dimension ref="A1:Z779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A733" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C750" sqref="C750"/>
+      <pane ySplit="1" topLeftCell="A726" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C733" sqref="C733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -35043,7 +35043,6 @@
       <c r="Z779" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/Listes_indicateurs_annuaire_stat.xlsx
+++ b/Listes_indicateurs_annuaire_stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\monprojet1_annuaire\Production-statistique-MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C37258-ADDA-417A-A92C-69EC9EA9D90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8B59DD-4520-48A5-B572-1740E21BAB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="2275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="2278">
   <si>
     <t>listes_indicateurs</t>
   </si>
@@ -6866,13 +6866,22 @@
   </si>
   <si>
     <t>Obc-Personnes dans les menages</t>
+  </si>
+  <si>
+    <t>A6SvPTxKi5R</t>
+  </si>
+  <si>
+    <t>ORL-Extraction corps etranger de œsophage</t>
+  </si>
+  <si>
+    <t>Extraction corps etranger de œsophage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6917,8 +6926,14 @@
       <color rgb="FF333333"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6946,6 +6961,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6995,7 +7016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7026,6 +7047,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7252,11 +7279,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z779"/>
+  <dimension ref="A1:Z780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A726" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C733" sqref="C733"/>
+      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C354" sqref="C354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -20266,17 +20293,17 @@
       <c r="Z361" s="1"/>
     </row>
     <row r="362" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A362" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B362" s="6" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>1083</v>
+      <c r="A362" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B362" s="16" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C362" s="17" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D362" s="14" t="s">
+        <v>2276</v>
       </c>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
@@ -20306,13 +20333,13 @@
         <v>4</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
@@ -20342,13 +20369,13 @@
         <v>4</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
@@ -20378,13 +20405,13 @@
         <v>4</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
@@ -20414,13 +20441,13 @@
         <v>4</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
@@ -20450,13 +20477,13 @@
         <v>4</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
@@ -20486,13 +20513,13 @@
         <v>4</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
@@ -20522,13 +20549,13 @@
         <v>4</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
@@ -20558,13 +20585,13 @@
         <v>4</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
@@ -20594,13 +20621,13 @@
         <v>4</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
@@ -20630,13 +20657,13 @@
         <v>4</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
@@ -20666,13 +20693,13 @@
         <v>4</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
@@ -20702,13 +20729,13 @@
         <v>4</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
@@ -20738,13 +20765,13 @@
         <v>4</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
@@ -20774,13 +20801,13 @@
         <v>4</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
@@ -20810,13 +20837,13 @@
         <v>4</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
@@ -20846,13 +20873,13 @@
         <v>4</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
@@ -20882,13 +20909,13 @@
         <v>4</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
@@ -20918,13 +20945,13 @@
         <v>4</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
@@ -20954,13 +20981,13 @@
         <v>4</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
@@ -20990,13 +21017,13 @@
         <v>4</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
@@ -21026,13 +21053,13 @@
         <v>4</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
@@ -21062,13 +21089,13 @@
         <v>4</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
@@ -21098,13 +21125,13 @@
         <v>4</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
@@ -21134,13 +21161,13 @@
         <v>4</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
@@ -21170,13 +21197,13 @@
         <v>4</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
@@ -21206,13 +21233,13 @@
         <v>4</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
@@ -21242,13 +21269,13 @@
         <v>4</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
@@ -21278,13 +21305,13 @@
         <v>4</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
@@ -21314,13 +21341,13 @@
         <v>4</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
@@ -21350,13 +21377,13 @@
         <v>4</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
@@ -21386,13 +21413,13 @@
         <v>4</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
@@ -21422,13 +21449,13 @@
         <v>4</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
@@ -21458,13 +21485,13 @@
         <v>4</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
@@ -21494,13 +21521,13 @@
         <v>4</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
@@ -21530,13 +21557,13 @@
         <v>4</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
@@ -21566,13 +21593,13 @@
         <v>4</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
@@ -21602,13 +21629,13 @@
         <v>4</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
@@ -21638,13 +21665,13 @@
         <v>4</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
@@ -21674,13 +21701,13 @@
         <v>4</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
@@ -21710,13 +21737,13 @@
         <v>4</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
@@ -21746,13 +21773,13 @@
         <v>4</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
@@ -21782,13 +21809,13 @@
         <v>4</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
@@ -21818,13 +21845,13 @@
         <v>4</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
@@ -21854,13 +21881,13 @@
         <v>4</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
@@ -21890,13 +21917,13 @@
         <v>4</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
@@ -21926,13 +21953,13 @@
         <v>4</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
@@ -21962,13 +21989,13 @@
         <v>4</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
@@ -21998,13 +22025,13 @@
         <v>4</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
@@ -22034,13 +22061,13 @@
         <v>4</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
@@ -22070,13 +22097,13 @@
         <v>4</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
@@ -22106,13 +22133,13 @@
         <v>4</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
@@ -22142,13 +22169,13 @@
         <v>4</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
@@ -22178,13 +22205,13 @@
         <v>4</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
@@ -22214,13 +22241,13 @@
         <v>4</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
@@ -22250,13 +22277,13 @@
         <v>4</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
@@ -22286,13 +22313,13 @@
         <v>4</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
@@ -22322,13 +22349,13 @@
         <v>4</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
@@ -22358,13 +22385,13 @@
         <v>4</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
@@ -22394,13 +22421,13 @@
         <v>4</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
@@ -22430,13 +22457,13 @@
         <v>4</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
@@ -22466,13 +22493,13 @@
         <v>4</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
@@ -22502,13 +22529,13 @@
         <v>4</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
@@ -22538,13 +22565,13 @@
         <v>4</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
@@ -22574,13 +22601,13 @@
         <v>4</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
@@ -22610,13 +22637,13 @@
         <v>4</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
@@ -22646,13 +22673,13 @@
         <v>4</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
@@ -22682,13 +22709,13 @@
         <v>4</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
@@ -22718,13 +22745,13 @@
         <v>4</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
@@ -22754,13 +22781,13 @@
         <v>4</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
@@ -22790,13 +22817,13 @@
         <v>4</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
@@ -22826,13 +22853,13 @@
         <v>4</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
@@ -22862,13 +22889,13 @@
         <v>4</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
@@ -22898,13 +22925,13 @@
         <v>4</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
@@ -22934,13 +22961,13 @@
         <v>4</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
@@ -22970,13 +22997,13 @@
         <v>4</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
@@ -23006,13 +23033,13 @@
         <v>4</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
@@ -23042,13 +23069,13 @@
         <v>4</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
@@ -23078,13 +23105,13 @@
         <v>4</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
@@ -23114,13 +23141,13 @@
         <v>4</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
@@ -23150,13 +23177,13 @@
         <v>4</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
@@ -23186,13 +23213,13 @@
         <v>4</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
@@ -23222,13 +23249,13 @@
         <v>4</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
@@ -23258,13 +23285,13 @@
         <v>4</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
@@ -23294,13 +23321,13 @@
         <v>4</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
@@ -23330,13 +23357,13 @@
         <v>4</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
@@ -23366,13 +23393,13 @@
         <v>4</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
@@ -23402,13 +23429,13 @@
         <v>4</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
@@ -23438,13 +23465,13 @@
         <v>4</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
@@ -23474,13 +23501,13 @@
         <v>4</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
@@ -23510,13 +23537,13 @@
         <v>4</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
@@ -23546,13 +23573,13 @@
         <v>4</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
@@ -23582,13 +23609,13 @@
         <v>4</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
@@ -23618,13 +23645,13 @@
         <v>4</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
@@ -23654,13 +23681,13 @@
         <v>4</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
@@ -23690,13 +23717,13 @@
         <v>4</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
@@ -23726,13 +23753,13 @@
         <v>4</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
@@ -23762,13 +23789,13 @@
         <v>4</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
@@ -23798,13 +23825,13 @@
         <v>4</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
@@ -23834,13 +23861,13 @@
         <v>4</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
@@ -23870,13 +23897,13 @@
         <v>4</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
@@ -23906,13 +23933,13 @@
         <v>4</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
@@ -23942,13 +23969,13 @@
         <v>4</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
@@ -23978,13 +24005,13 @@
         <v>4</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
@@ -24014,13 +24041,13 @@
         <v>4</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
@@ -24050,13 +24077,13 @@
         <v>4</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
@@ -24086,13 +24113,13 @@
         <v>4</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
@@ -24122,13 +24149,13 @@
         <v>4</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
@@ -24158,13 +24185,13 @@
         <v>4</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
@@ -24194,13 +24221,13 @@
         <v>4</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
@@ -24230,13 +24257,13 @@
         <v>4</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
@@ -24266,13 +24293,13 @@
         <v>4</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
@@ -24302,13 +24329,13 @@
         <v>4</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
@@ -24338,13 +24365,13 @@
         <v>4</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
@@ -24374,13 +24401,13 @@
         <v>4</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
@@ -24410,13 +24437,13 @@
         <v>4</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
@@ -24446,13 +24473,13 @@
         <v>4</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
@@ -24482,13 +24509,13 @@
         <v>4</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
@@ -24518,13 +24545,13 @@
         <v>4</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
@@ -24554,13 +24581,13 @@
         <v>4</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
@@ -24590,13 +24617,13 @@
         <v>4</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
@@ -24626,13 +24653,13 @@
         <v>4</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
@@ -24662,13 +24689,13 @@
         <v>4</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
@@ -24698,13 +24725,13 @@
         <v>4</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
@@ -24734,13 +24761,13 @@
         <v>4</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
@@ -24770,13 +24797,13 @@
         <v>4</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
@@ -24806,13 +24833,13 @@
         <v>4</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
@@ -24842,13 +24869,13 @@
         <v>4</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
@@ -24878,13 +24905,13 @@
         <v>4</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
@@ -24914,13 +24941,13 @@
         <v>4</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
@@ -24950,13 +24977,13 @@
         <v>4</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
@@ -24986,13 +25013,13 @@
         <v>4</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
@@ -25022,13 +25049,13 @@
         <v>4</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
@@ -25058,13 +25085,13 @@
         <v>4</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
@@ -25094,13 +25121,13 @@
         <v>4</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
@@ -25130,13 +25157,13 @@
         <v>4</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
@@ -25166,13 +25193,13 @@
         <v>4</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
@@ -25202,13 +25229,13 @@
         <v>4</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
@@ -25238,13 +25265,13 @@
         <v>4</v>
       </c>
       <c r="B500" s="6" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
@@ -25274,13 +25301,13 @@
         <v>4</v>
       </c>
       <c r="B501" s="6" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
@@ -25310,13 +25337,13 @@
         <v>4</v>
       </c>
       <c r="B502" s="6" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
@@ -25346,13 +25373,13 @@
         <v>4</v>
       </c>
       <c r="B503" s="6" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
@@ -25382,13 +25409,13 @@
         <v>4</v>
       </c>
       <c r="B504" s="6" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
@@ -25418,13 +25445,13 @@
         <v>4</v>
       </c>
       <c r="B505" s="6" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
@@ -25454,13 +25481,13 @@
         <v>4</v>
       </c>
       <c r="B506" s="6" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
@@ -25490,13 +25517,13 @@
         <v>4</v>
       </c>
       <c r="B507" s="6" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
@@ -25526,13 +25553,13 @@
         <v>4</v>
       </c>
       <c r="B508" s="6" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
@@ -25562,13 +25589,13 @@
         <v>4</v>
       </c>
       <c r="B509" s="6" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
@@ -25598,13 +25625,13 @@
         <v>4</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
@@ -25634,13 +25661,13 @@
         <v>4</v>
       </c>
       <c r="B511" s="6" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
@@ -25670,13 +25697,13 @@
         <v>4</v>
       </c>
       <c r="B512" s="6" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
@@ -25706,13 +25733,13 @@
         <v>4</v>
       </c>
       <c r="B513" s="6" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
@@ -25742,13 +25769,13 @@
         <v>4</v>
       </c>
       <c r="B514" s="6" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
@@ -25778,13 +25805,13 @@
         <v>4</v>
       </c>
       <c r="B515" s="6" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
@@ -25814,13 +25841,13 @@
         <v>4</v>
       </c>
       <c r="B516" s="6" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
@@ -25850,13 +25877,13 @@
         <v>4</v>
       </c>
       <c r="B517" s="6" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
@@ -25886,13 +25913,13 @@
         <v>4</v>
       </c>
       <c r="B518" s="6" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
@@ -25922,13 +25949,13 @@
         <v>4</v>
       </c>
       <c r="B519" s="6" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
@@ -25958,13 +25985,13 @@
         <v>4</v>
       </c>
       <c r="B520" s="6" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
@@ -25994,13 +26021,13 @@
         <v>4</v>
       </c>
       <c r="B521" s="6" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
@@ -26030,13 +26057,13 @@
         <v>4</v>
       </c>
       <c r="B522" s="6" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
@@ -26066,13 +26093,13 @@
         <v>4</v>
       </c>
       <c r="B523" s="6" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
@@ -26102,13 +26129,13 @@
         <v>4</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
@@ -26138,13 +26165,13 @@
         <v>4</v>
       </c>
       <c r="B525" s="6" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
@@ -26174,13 +26201,13 @@
         <v>4</v>
       </c>
       <c r="B526" s="6" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
@@ -26210,13 +26237,13 @@
         <v>4</v>
       </c>
       <c r="B527" s="6" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
@@ -26246,13 +26273,13 @@
         <v>4</v>
       </c>
       <c r="B528" s="6" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
@@ -26282,13 +26309,13 @@
         <v>4</v>
       </c>
       <c r="B529" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
@@ -26318,13 +26345,13 @@
         <v>4</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
@@ -26354,13 +26381,13 @@
         <v>4</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
@@ -26390,13 +26417,13 @@
         <v>4</v>
       </c>
       <c r="B532" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
@@ -26426,13 +26453,13 @@
         <v>4</v>
       </c>
       <c r="B533" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
@@ -26462,13 +26489,13 @@
         <v>4</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
@@ -26498,13 +26525,13 @@
         <v>4</v>
       </c>
       <c r="B535" s="6" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
@@ -26534,13 +26561,13 @@
         <v>4</v>
       </c>
       <c r="B536" s="6" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
@@ -26570,13 +26597,13 @@
         <v>4</v>
       </c>
       <c r="B537" s="6" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
@@ -26606,13 +26633,13 @@
         <v>4</v>
       </c>
       <c r="B538" s="6" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
@@ -26642,13 +26669,13 @@
         <v>4</v>
       </c>
       <c r="B539" s="6" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
@@ -26678,13 +26705,13 @@
         <v>4</v>
       </c>
       <c r="B540" s="6" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
@@ -26714,13 +26741,13 @@
         <v>4</v>
       </c>
       <c r="B541" s="6" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
@@ -26750,13 +26777,13 @@
         <v>4</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
@@ -26786,13 +26813,13 @@
         <v>4</v>
       </c>
       <c r="B543" s="6" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
@@ -26822,13 +26849,13 @@
         <v>4</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
@@ -26858,13 +26885,13 @@
         <v>4</v>
       </c>
       <c r="B545" s="6" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
@@ -26894,13 +26921,13 @@
         <v>4</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
@@ -26930,13 +26957,13 @@
         <v>4</v>
       </c>
       <c r="B547" s="6" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
@@ -26966,13 +26993,13 @@
         <v>4</v>
       </c>
       <c r="B548" s="6" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
@@ -27002,13 +27029,13 @@
         <v>4</v>
       </c>
       <c r="B549" s="6" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
@@ -27038,13 +27065,13 @@
         <v>4</v>
       </c>
       <c r="B550" s="6" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
@@ -27074,13 +27101,13 @@
         <v>4</v>
       </c>
       <c r="B551" s="6" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
@@ -27110,13 +27137,13 @@
         <v>4</v>
       </c>
       <c r="B552" s="6" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
@@ -27146,13 +27173,13 @@
         <v>4</v>
       </c>
       <c r="B553" s="6" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
@@ -27182,13 +27209,13 @@
         <v>4</v>
       </c>
       <c r="B554" s="6" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
@@ -27218,13 +27245,13 @@
         <v>4</v>
       </c>
       <c r="B555" s="6" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
@@ -27254,13 +27281,13 @@
         <v>4</v>
       </c>
       <c r="B556" s="6" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
@@ -27290,13 +27317,13 @@
         <v>4</v>
       </c>
       <c r="B557" s="6" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="E557" s="1"/>
       <c r="F557" s="1"/>
@@ -27326,13 +27353,13 @@
         <v>4</v>
       </c>
       <c r="B558" s="6" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="E558" s="1"/>
       <c r="F558" s="1"/>
@@ -27362,13 +27389,13 @@
         <v>4</v>
       </c>
       <c r="B559" s="6" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="E559" s="1"/>
       <c r="F559" s="1"/>
@@ -27398,13 +27425,13 @@
         <v>4</v>
       </c>
       <c r="B560" s="6" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="E560" s="1"/>
       <c r="F560" s="1"/>
@@ -27434,13 +27461,13 @@
         <v>4</v>
       </c>
       <c r="B561" s="6" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="E561" s="1"/>
       <c r="F561" s="1"/>
@@ -27470,13 +27497,13 @@
         <v>4</v>
       </c>
       <c r="B562" s="6" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="E562" s="1"/>
       <c r="F562" s="1"/>
@@ -27506,13 +27533,13 @@
         <v>4</v>
       </c>
       <c r="B563" s="6" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="E563" s="1"/>
       <c r="F563" s="1"/>
@@ -27542,13 +27569,13 @@
         <v>4</v>
       </c>
       <c r="B564" s="6" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="E564" s="1"/>
       <c r="F564" s="1"/>
@@ -27578,13 +27605,13 @@
         <v>4</v>
       </c>
       <c r="B565" s="6" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="E565" s="1"/>
       <c r="F565" s="1"/>
@@ -27614,13 +27641,13 @@
         <v>4</v>
       </c>
       <c r="B566" s="6" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="E566" s="1"/>
       <c r="F566" s="1"/>
@@ -27650,13 +27677,13 @@
         <v>4</v>
       </c>
       <c r="B567" s="6" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="E567" s="1"/>
       <c r="F567" s="1"/>
@@ -27686,13 +27713,13 @@
         <v>4</v>
       </c>
       <c r="B568" s="6" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="E568" s="1"/>
       <c r="F568" s="1"/>
@@ -27722,13 +27749,13 @@
         <v>4</v>
       </c>
       <c r="B569" s="6" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
@@ -27758,13 +27785,13 @@
         <v>4</v>
       </c>
       <c r="B570" s="6" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
@@ -27794,13 +27821,13 @@
         <v>4</v>
       </c>
       <c r="B571" s="6" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
@@ -27830,13 +27857,13 @@
         <v>4</v>
       </c>
       <c r="B572" s="6" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="E572" s="1"/>
       <c r="F572" s="1"/>
@@ -27866,13 +27893,13 @@
         <v>4</v>
       </c>
       <c r="B573" s="6" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="E573" s="1"/>
       <c r="F573" s="1"/>
@@ -27902,13 +27929,13 @@
         <v>4</v>
       </c>
       <c r="B574" s="6" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="E574" s="1"/>
       <c r="F574" s="1"/>
@@ -27938,13 +27965,13 @@
         <v>4</v>
       </c>
       <c r="B575" s="6" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
@@ -27974,13 +28001,13 @@
         <v>4</v>
       </c>
       <c r="B576" s="6" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
@@ -28010,13 +28037,13 @@
         <v>4</v>
       </c>
       <c r="B577" s="6" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="E577" s="1"/>
       <c r="F577" s="1"/>
@@ -28046,13 +28073,13 @@
         <v>4</v>
       </c>
       <c r="B578" s="6" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="D578" s="1" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="E578" s="1"/>
       <c r="F578" s="1"/>
@@ -28082,13 +28109,13 @@
         <v>4</v>
       </c>
       <c r="B579" s="6" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="E579" s="1"/>
       <c r="F579" s="1"/>
@@ -28118,13 +28145,13 @@
         <v>4</v>
       </c>
       <c r="B580" s="6" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
@@ -28154,13 +28181,13 @@
         <v>4</v>
       </c>
       <c r="B581" s="6" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
@@ -28190,13 +28217,13 @@
         <v>4</v>
       </c>
       <c r="B582" s="6" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="E582" s="1"/>
       <c r="F582" s="1"/>
@@ -28226,13 +28253,13 @@
         <v>4</v>
       </c>
       <c r="B583" s="6" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="E583" s="1"/>
       <c r="F583" s="1"/>
@@ -28262,13 +28289,13 @@
         <v>4</v>
       </c>
       <c r="B584" s="6" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="E584" s="1"/>
       <c r="F584" s="1"/>
@@ -28298,13 +28325,13 @@
         <v>4</v>
       </c>
       <c r="B585" s="6" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="E585" s="1"/>
       <c r="F585" s="1"/>
@@ -28331,16 +28358,16 @@
     </row>
     <row r="586" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A586" s="5" t="s">
-        <v>1740</v>
+        <v>4</v>
       </c>
       <c r="B586" s="6" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="E586" s="1"/>
       <c r="F586" s="1"/>
@@ -28370,13 +28397,13 @@
         <v>1740</v>
       </c>
       <c r="B587" s="6" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="E587" s="1"/>
       <c r="F587" s="1"/>
@@ -28406,13 +28433,13 @@
         <v>1740</v>
       </c>
       <c r="B588" s="6" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="E588" s="1"/>
       <c r="F588" s="1"/>
@@ -28442,13 +28469,13 @@
         <v>1740</v>
       </c>
       <c r="B589" s="6" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="E589" s="1"/>
       <c r="F589" s="1"/>
@@ -28478,13 +28505,13 @@
         <v>1740</v>
       </c>
       <c r="B590" s="6" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="E590" s="1"/>
       <c r="F590" s="1"/>
@@ -28514,13 +28541,13 @@
         <v>1740</v>
       </c>
       <c r="B591" s="6" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="E591" s="1"/>
       <c r="F591" s="1"/>
@@ -28550,13 +28577,13 @@
         <v>1740</v>
       </c>
       <c r="B592" s="6" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="E592" s="1"/>
       <c r="F592" s="1"/>
@@ -28586,13 +28613,13 @@
         <v>1740</v>
       </c>
       <c r="B593" s="6" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="E593" s="1"/>
       <c r="F593" s="1"/>
@@ -28622,13 +28649,13 @@
         <v>1740</v>
       </c>
       <c r="B594" s="6" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="E594" s="1"/>
       <c r="F594" s="1"/>
@@ -28658,13 +28685,13 @@
         <v>1740</v>
       </c>
       <c r="B595" s="6" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="E595" s="1"/>
       <c r="F595" s="1"/>
@@ -28694,13 +28721,13 @@
         <v>1740</v>
       </c>
       <c r="B596" s="6" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="E596" s="1"/>
       <c r="F596" s="1"/>
@@ -28730,13 +28757,13 @@
         <v>1740</v>
       </c>
       <c r="B597" s="6" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="E597" s="1"/>
       <c r="F597" s="1"/>
@@ -28766,13 +28793,13 @@
         <v>1740</v>
       </c>
       <c r="B598" s="6" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="E598" s="1"/>
       <c r="F598" s="1"/>
@@ -28802,13 +28829,13 @@
         <v>1740</v>
       </c>
       <c r="B599" s="6" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="E599" s="1"/>
       <c r="F599" s="1"/>
@@ -28838,13 +28865,13 @@
         <v>1740</v>
       </c>
       <c r="B600" s="6" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="E600" s="1"/>
       <c r="F600" s="1"/>
@@ -28871,16 +28898,16 @@
     </row>
     <row r="601" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A601" s="5" t="s">
-        <v>1780</v>
+        <v>1740</v>
       </c>
       <c r="B601" s="6" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="E601" s="1"/>
       <c r="F601" s="1"/>
@@ -28910,13 +28937,13 @@
         <v>1780</v>
       </c>
       <c r="B602" s="6" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="E602" s="1"/>
       <c r="F602" s="1"/>
@@ -28943,16 +28970,16 @@
     </row>
     <row r="603" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A603" s="5" t="s">
-        <v>1787</v>
+        <v>1780</v>
       </c>
       <c r="B603" s="6" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="E603" s="1"/>
       <c r="F603" s="1"/>
@@ -28982,13 +29009,13 @@
         <v>1787</v>
       </c>
       <c r="B604" s="6" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="E604" s="1"/>
       <c r="F604" s="1"/>
@@ -29018,13 +29045,13 @@
         <v>1787</v>
       </c>
       <c r="B605" s="6" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="E605" s="1"/>
       <c r="F605" s="1"/>
@@ -29054,13 +29081,13 @@
         <v>1787</v>
       </c>
       <c r="B606" s="6" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="E606" s="1"/>
       <c r="F606" s="1"/>
@@ -29090,13 +29117,13 @@
         <v>1787</v>
       </c>
       <c r="B607" s="6" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="E607" s="1"/>
       <c r="F607" s="1"/>
@@ -29126,13 +29153,13 @@
         <v>1787</v>
       </c>
       <c r="B608" s="6" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="E608" s="1"/>
       <c r="F608" s="1"/>
@@ -29162,13 +29189,13 @@
         <v>1787</v>
       </c>
       <c r="B609" s="6" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="E609" s="1"/>
       <c r="F609" s="1"/>
@@ -29198,13 +29225,13 @@
         <v>1787</v>
       </c>
       <c r="B610" s="6" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="E610" s="1"/>
       <c r="F610" s="1"/>
@@ -29234,13 +29261,13 @@
         <v>1787</v>
       </c>
       <c r="B611" s="6" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="E611" s="1"/>
       <c r="F611" s="1"/>
@@ -29270,13 +29297,13 @@
         <v>1787</v>
       </c>
       <c r="B612" s="6" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="E612" s="1"/>
       <c r="F612" s="1"/>
@@ -29303,16 +29330,16 @@
     </row>
     <row r="613" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A613" s="5" t="s">
-        <v>1818</v>
+        <v>1787</v>
       </c>
       <c r="B613" s="6" t="s">
-        <v>368</v>
+        <v>1815</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>369</v>
+        <v>1816</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>370</v>
+        <v>1817</v>
       </c>
       <c r="E613" s="1"/>
       <c r="F613" s="1"/>
@@ -29342,13 +29369,13 @@
         <v>1818</v>
       </c>
       <c r="B614" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E614" s="1"/>
       <c r="F614" s="1"/>
@@ -29378,13 +29405,13 @@
         <v>1818</v>
       </c>
       <c r="B615" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E615" s="1"/>
       <c r="F615" s="1"/>
@@ -29414,13 +29441,13 @@
         <v>1818</v>
       </c>
       <c r="B616" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E616" s="1"/>
       <c r="F616" s="1"/>
@@ -29450,13 +29477,13 @@
         <v>1818</v>
       </c>
       <c r="B617" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E617" s="1"/>
       <c r="F617" s="1"/>
@@ -29486,13 +29513,13 @@
         <v>1818</v>
       </c>
       <c r="B618" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
@@ -29522,13 +29549,13 @@
         <v>1818</v>
       </c>
       <c r="B619" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E619" s="1"/>
       <c r="F619" s="1"/>
@@ -29558,13 +29585,13 @@
         <v>1818</v>
       </c>
       <c r="B620" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E620" s="1"/>
       <c r="F620" s="1"/>
@@ -29594,13 +29621,13 @@
         <v>1818</v>
       </c>
       <c r="B621" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E621" s="1"/>
       <c r="F621" s="1"/>
@@ -29630,13 +29657,13 @@
         <v>1818</v>
       </c>
       <c r="B622" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E622" s="1"/>
       <c r="F622" s="1"/>
@@ -29666,13 +29693,13 @@
         <v>1818</v>
       </c>
       <c r="B623" s="6" t="s">
-        <v>1819</v>
+        <v>395</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>1820</v>
+        <v>396</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>1821</v>
+        <v>397</v>
       </c>
       <c r="E623" s="1"/>
       <c r="F623" s="1"/>
@@ -29702,13 +29729,13 @@
         <v>1818</v>
       </c>
       <c r="B624" s="6" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="E624" s="1"/>
       <c r="F624" s="1"/>
@@ -29738,13 +29765,13 @@
         <v>1818</v>
       </c>
       <c r="B625" s="6" t="s">
-        <v>65</v>
+        <v>1822</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>66</v>
+        <v>1823</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>67</v>
+        <v>1824</v>
       </c>
       <c r="E625" s="1"/>
       <c r="F625" s="1"/>
@@ -29774,13 +29801,13 @@
         <v>1818</v>
       </c>
       <c r="B626" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E626" s="1"/>
       <c r="F626" s="1"/>
@@ -29810,13 +29837,13 @@
         <v>1818</v>
       </c>
       <c r="B627" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E627" s="1"/>
       <c r="F627" s="1"/>
@@ -29843,16 +29870,16 @@
     </row>
     <row r="628" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A628" s="5" t="s">
-        <v>1825</v>
+        <v>1818</v>
       </c>
       <c r="B628" s="6" t="s">
-        <v>1826</v>
+        <v>71</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>1827</v>
+        <v>72</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>1828</v>
+        <v>73</v>
       </c>
       <c r="E628" s="1"/>
       <c r="F628" s="1"/>
@@ -29882,13 +29909,13 @@
         <v>1825</v>
       </c>
       <c r="B629" s="6" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="E629" s="1"/>
       <c r="F629" s="1"/>
@@ -29918,13 +29945,13 @@
         <v>1825</v>
       </c>
       <c r="B630" s="6" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="E630" s="1"/>
       <c r="F630" s="1"/>
@@ -29954,13 +29981,13 @@
         <v>1825</v>
       </c>
       <c r="B631" s="6" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="E631" s="1"/>
       <c r="F631" s="1"/>
@@ -29987,16 +30014,16 @@
     </row>
     <row r="632" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A632" s="5" t="s">
-        <v>1838</v>
+        <v>1825</v>
       </c>
       <c r="B632" s="6" t="s">
-        <v>554</v>
+        <v>1835</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>555</v>
+        <v>1836</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>556</v>
+        <v>1837</v>
       </c>
       <c r="E632" s="1"/>
       <c r="F632" s="1"/>
@@ -30026,13 +30053,13 @@
         <v>1838</v>
       </c>
       <c r="B633" s="6" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D633" s="1" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E633" s="1"/>
       <c r="F633" s="1"/>
@@ -30062,13 +30089,13 @@
         <v>1838</v>
       </c>
       <c r="B634" s="6" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="E634" s="1"/>
       <c r="F634" s="1"/>
@@ -30098,13 +30125,13 @@
         <v>1838</v>
       </c>
       <c r="B635" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E635" s="1"/>
       <c r="F635" s="1"/>
@@ -30134,13 +30161,13 @@
         <v>1838</v>
       </c>
       <c r="B636" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E636" s="1"/>
       <c r="F636" s="1"/>
@@ -30170,13 +30197,13 @@
         <v>1838</v>
       </c>
       <c r="B637" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E637" s="1"/>
       <c r="F637" s="1"/>
@@ -30206,13 +30233,13 @@
         <v>1838</v>
       </c>
       <c r="B638" s="6" t="s">
-        <v>1839</v>
+        <v>590</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>1840</v>
+        <v>591</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>1841</v>
+        <v>592</v>
       </c>
       <c r="E638" s="1"/>
       <c r="F638" s="1"/>
@@ -30242,13 +30269,13 @@
         <v>1838</v>
       </c>
       <c r="B639" s="6" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="E639" s="1"/>
       <c r="F639" s="1"/>
@@ -30278,13 +30305,13 @@
         <v>1838</v>
       </c>
       <c r="B640" s="6" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="E640" s="1"/>
       <c r="F640" s="1"/>
@@ -30314,13 +30341,13 @@
         <v>1838</v>
       </c>
       <c r="B641" s="6" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="E641" s="1"/>
       <c r="F641" s="1"/>
@@ -30350,13 +30377,13 @@
         <v>1838</v>
       </c>
       <c r="B642" s="6" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="E642" s="1"/>
       <c r="F642" s="1"/>
@@ -30386,13 +30413,13 @@
         <v>1838</v>
       </c>
       <c r="B643" s="6" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="E643" s="1"/>
       <c r="F643" s="1"/>
@@ -30422,13 +30449,13 @@
         <v>1838</v>
       </c>
       <c r="B644" s="6" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="E644" s="1"/>
       <c r="F644" s="1"/>
@@ -30458,13 +30485,13 @@
         <v>1838</v>
       </c>
       <c r="B645" s="6" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="E645" s="1"/>
       <c r="F645" s="1"/>
@@ -30494,13 +30521,13 @@
         <v>1838</v>
       </c>
       <c r="B646" s="6" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="E646" s="1"/>
       <c r="F646" s="1"/>
@@ -30530,13 +30557,13 @@
         <v>1838</v>
       </c>
       <c r="B647" s="6" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="E647" s="1"/>
       <c r="F647" s="1"/>
@@ -30566,13 +30593,13 @@
         <v>1838</v>
       </c>
       <c r="B648" s="6" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="E648" s="1"/>
       <c r="F648" s="1"/>
@@ -30602,13 +30629,13 @@
         <v>1838</v>
       </c>
       <c r="B649" s="6" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="E649" s="1"/>
       <c r="F649" s="1"/>
@@ -30638,13 +30665,13 @@
         <v>1838</v>
       </c>
       <c r="B650" s="6" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="E650" s="1"/>
       <c r="F650" s="1"/>
@@ -30674,13 +30701,13 @@
         <v>1838</v>
       </c>
       <c r="B651" s="6" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="E651" s="1"/>
       <c r="F651" s="1"/>
@@ -30710,13 +30737,13 @@
         <v>1838</v>
       </c>
       <c r="B652" s="6" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="E652" s="1"/>
       <c r="F652" s="1"/>
@@ -30746,13 +30773,13 @@
         <v>1838</v>
       </c>
       <c r="B653" s="6" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="E653" s="1"/>
       <c r="F653" s="1"/>
@@ -30782,13 +30809,13 @@
         <v>1838</v>
       </c>
       <c r="B654" s="6" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="E654" s="1"/>
       <c r="F654" s="1"/>
@@ -30818,13 +30845,13 @@
         <v>1838</v>
       </c>
       <c r="B655" s="6" t="s">
-        <v>572</v>
+        <v>1887</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>573</v>
+        <v>1888</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>574</v>
+        <v>1889</v>
       </c>
       <c r="E655" s="1"/>
       <c r="F655" s="1"/>
@@ -30854,13 +30881,13 @@
         <v>1838</v>
       </c>
       <c r="B656" s="6" t="s">
-        <v>1890</v>
+        <v>572</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>1891</v>
+        <v>573</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>1892</v>
+        <v>574</v>
       </c>
       <c r="E656" s="1"/>
       <c r="F656" s="1"/>
@@ -30890,13 +30917,13 @@
         <v>1838</v>
       </c>
       <c r="B657" s="6" t="s">
-        <v>326</v>
+        <v>1890</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>327</v>
+        <v>1891</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>328</v>
+        <v>1892</v>
       </c>
       <c r="E657" s="1"/>
       <c r="F657" s="1"/>
@@ -30926,13 +30953,13 @@
         <v>1838</v>
       </c>
       <c r="B658" s="6" t="s">
-        <v>566</v>
+        <v>326</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>567</v>
+        <v>327</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>568</v>
+        <v>328</v>
       </c>
       <c r="E658" s="1"/>
       <c r="F658" s="1"/>
@@ -30962,13 +30989,13 @@
         <v>1838</v>
       </c>
       <c r="B659" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E659" s="1"/>
       <c r="F659" s="1"/>
@@ -30995,16 +31022,16 @@
     </row>
     <row r="660" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A660" s="5" t="s">
-        <v>1893</v>
+        <v>1838</v>
       </c>
       <c r="B660" s="6" t="s">
-        <v>1894</v>
+        <v>569</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>1895</v>
+        <v>570</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>1895</v>
+        <v>571</v>
       </c>
       <c r="E660" s="1"/>
       <c r="F660" s="1"/>
@@ -31034,13 +31061,13 @@
         <v>1893</v>
       </c>
       <c r="B661" s="6" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="E661" s="1"/>
       <c r="F661" s="1"/>
@@ -31070,13 +31097,13 @@
         <v>1893</v>
       </c>
       <c r="B662" s="6" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="E662" s="1"/>
       <c r="F662" s="1"/>
@@ -31106,13 +31133,13 @@
         <v>1893</v>
       </c>
       <c r="B663" s="6" t="s">
-        <v>1878</v>
+        <v>1899</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>1879</v>
+        <v>1900</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="E663" s="1"/>
       <c r="F663" s="1"/>
@@ -31142,13 +31169,13 @@
         <v>1893</v>
       </c>
       <c r="B664" s="6" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="E664" s="1"/>
       <c r="F664" s="1"/>
@@ -31178,13 +31205,13 @@
         <v>1893</v>
       </c>
       <c r="B665" s="6" t="s">
-        <v>1901</v>
+        <v>1884</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>1902</v>
+        <v>1885</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>1903</v>
+        <v>1886</v>
       </c>
       <c r="E665" s="1"/>
       <c r="F665" s="1"/>
@@ -31211,16 +31238,16 @@
     </row>
     <row r="666" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A666" s="5" t="s">
-        <v>1904</v>
+        <v>1893</v>
       </c>
       <c r="B666" s="6" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="E666" s="1"/>
       <c r="F666" s="1"/>
@@ -31250,13 +31277,13 @@
         <v>1904</v>
       </c>
       <c r="B667" s="6" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="E667" s="1"/>
       <c r="F667" s="1"/>
@@ -31286,13 +31313,13 @@
         <v>1904</v>
       </c>
       <c r="B668" s="6" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="E668" s="1"/>
       <c r="F668" s="1"/>
@@ -31322,13 +31349,13 @@
         <v>1904</v>
       </c>
       <c r="B669" s="6" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="E669" s="1"/>
       <c r="F669" s="1"/>
@@ -31358,13 +31385,13 @@
         <v>1904</v>
       </c>
       <c r="B670" s="6" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="E670" s="1"/>
       <c r="F670" s="1"/>
@@ -31394,13 +31421,13 @@
         <v>1904</v>
       </c>
       <c r="B671" s="6" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="E671" s="1"/>
       <c r="F671" s="1"/>
@@ -31430,13 +31457,13 @@
         <v>1904</v>
       </c>
       <c r="B672" s="6" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="E672" s="1"/>
       <c r="F672" s="1"/>
@@ -31466,13 +31493,13 @@
         <v>1904</v>
       </c>
       <c r="B673" s="6" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="E673" s="1"/>
       <c r="F673" s="1"/>
@@ -31502,13 +31529,13 @@
         <v>1904</v>
       </c>
       <c r="B674" s="6" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="E674" s="1"/>
       <c r="F674" s="1"/>
@@ -31538,13 +31565,13 @@
         <v>1904</v>
       </c>
       <c r="B675" s="6" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="E675" s="1"/>
       <c r="F675" s="1"/>
@@ -31574,13 +31601,13 @@
         <v>1904</v>
       </c>
       <c r="B676" s="6" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="E676" s="1"/>
       <c r="F676" s="1"/>
@@ -31610,13 +31637,13 @@
         <v>1904</v>
       </c>
       <c r="B677" s="6" t="s">
-        <v>302</v>
+        <v>1935</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>303</v>
+        <v>1936</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>304</v>
+        <v>1937</v>
       </c>
       <c r="E677" s="1"/>
       <c r="F677" s="1"/>
@@ -31646,13 +31673,13 @@
         <v>1904</v>
       </c>
       <c r="B678" s="6" t="s">
-        <v>1938</v>
+        <v>302</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>1939</v>
+        <v>303</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>1940</v>
+        <v>304</v>
       </c>
       <c r="E678" s="1"/>
       <c r="F678" s="1"/>
@@ -31682,13 +31709,13 @@
         <v>1904</v>
       </c>
       <c r="B679" s="6" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="E679" s="1"/>
       <c r="F679" s="1"/>
@@ -31718,13 +31745,13 @@
         <v>1904</v>
       </c>
       <c r="B680" s="6" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="E680" s="1"/>
       <c r="F680" s="1"/>
@@ -31754,13 +31781,13 @@
         <v>1904</v>
       </c>
       <c r="B681" s="6" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="E681" s="1"/>
       <c r="F681" s="1"/>
@@ -31790,13 +31817,13 @@
         <v>1904</v>
       </c>
       <c r="B682" s="6" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="E682" s="1"/>
       <c r="F682" s="1"/>
@@ -31826,13 +31853,13 @@
         <v>1904</v>
       </c>
       <c r="B683" s="6" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="E683" s="1"/>
       <c r="F683" s="1"/>
@@ -31862,13 +31889,13 @@
         <v>1904</v>
       </c>
       <c r="B684" s="6" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="E684" s="1"/>
       <c r="F684" s="1"/>
@@ -31898,13 +31925,13 @@
         <v>1904</v>
       </c>
       <c r="B685" s="6" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="E685" s="1"/>
       <c r="F685" s="1"/>
@@ -31934,13 +31961,13 @@
         <v>1904</v>
       </c>
       <c r="B686" s="6" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="E686" s="1"/>
       <c r="F686" s="1"/>
@@ -31970,13 +31997,13 @@
         <v>1904</v>
       </c>
       <c r="B687" s="6" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="E687" s="1"/>
       <c r="F687" s="1"/>
@@ -32006,13 +32033,13 @@
         <v>1904</v>
       </c>
       <c r="B688" s="6" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="E688" s="1"/>
       <c r="F688" s="1"/>
@@ -32042,13 +32069,13 @@
         <v>1904</v>
       </c>
       <c r="B689" s="6" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="E689" s="1"/>
       <c r="F689" s="1"/>
@@ -32078,13 +32105,13 @@
         <v>1904</v>
       </c>
       <c r="B690" s="6" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="E690" s="1"/>
       <c r="F690" s="1"/>
@@ -32114,13 +32141,13 @@
         <v>1904</v>
       </c>
       <c r="B691" s="6" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="E691" s="1"/>
       <c r="F691" s="1"/>
@@ -32146,17 +32173,17 @@
       <c r="Z691" s="1"/>
     </row>
     <row r="692" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A692" s="7" t="s">
-        <v>1980</v>
-      </c>
-      <c r="B692" s="1" t="s">
-        <v>1981</v>
+      <c r="A692" s="5" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B692" s="6" t="s">
+        <v>1977</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="E692" s="1"/>
       <c r="F692" s="1"/>
@@ -32186,13 +32213,13 @@
         <v>1980</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="E693" s="1"/>
       <c r="F693" s="1"/>
@@ -32218,17 +32245,17 @@
       <c r="Z693" s="1"/>
     </row>
     <row r="694" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A694" s="1" t="s">
-        <v>1985</v>
+      <c r="A694" s="7" t="s">
+        <v>1980</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>1986</v>
-      </c>
-      <c r="C694" s="13" t="s">
-        <v>1987</v>
+        <v>1983</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>1984</v>
       </c>
       <c r="D694" s="1" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="E694" s="1"/>
       <c r="F694" s="1"/>
@@ -32258,13 +32285,13 @@
         <v>1985</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="C695" s="13" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="D695" s="1" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="E695" s="1"/>
       <c r="F695" s="1"/>
@@ -32294,13 +32321,13 @@
         <v>1985</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="C696" s="13" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="D696" s="1" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E696" s="1"/>
       <c r="F696" s="1"/>
@@ -32330,13 +32357,13 @@
         <v>1985</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="C697" s="13" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="D697" s="1" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="E697" s="1"/>
       <c r="F697" s="1"/>
@@ -32366,13 +32393,13 @@
         <v>1985</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="C698" s="13" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="D698" s="1" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E698" s="1"/>
       <c r="F698" s="1"/>
@@ -32402,13 +32429,13 @@
         <v>1985</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="C699" s="13" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D699" s="1" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="E699" s="1"/>
       <c r="F699" s="1"/>
@@ -32438,13 +32465,13 @@
         <v>1985</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C700" s="13" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="D700" s="1" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="E700" s="1"/>
       <c r="F700" s="1"/>
@@ -32474,13 +32501,13 @@
         <v>1985</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C701" s="13" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="D701" s="1" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E701" s="1"/>
       <c r="F701" s="1"/>
@@ -32510,13 +32537,13 @@
         <v>1985</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C702" s="13" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D702" s="1" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="E702" s="1"/>
       <c r="F702" s="1"/>
@@ -32546,13 +32573,13 @@
         <v>1985</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>2004</v>
-      </c>
-      <c r="C703" s="1" t="s">
-        <v>2005</v>
+        <v>2002</v>
+      </c>
+      <c r="C703" s="13" t="s">
+        <v>2003</v>
       </c>
       <c r="D703" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E703" s="1"/>
       <c r="F703" s="1"/>
@@ -32582,13 +32609,13 @@
         <v>1985</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C704" s="1" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D704" s="1" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E704" s="1"/>
       <c r="F704" s="1"/>
@@ -32618,13 +32645,13 @@
         <v>1985</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D705" s="1" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E705" s="1"/>
       <c r="F705" s="1"/>
@@ -32651,16 +32678,16 @@
     </row>
     <row r="706" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A706" s="1" t="s">
-        <v>2010</v>
+        <v>1985</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>1986</v>
+        <v>2008</v>
       </c>
       <c r="C706" s="1" t="s">
-        <v>1987</v>
+        <v>2009</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>1987</v>
+        <v>2009</v>
       </c>
       <c r="E706" s="1"/>
       <c r="F706" s="1"/>
@@ -32690,13 +32717,13 @@
         <v>2010</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="D707" s="1" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="E707" s="1"/>
       <c r="F707" s="1"/>
@@ -32726,13 +32753,13 @@
         <v>2010</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="D708" s="1" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E708" s="1"/>
       <c r="F708" s="1"/>
@@ -32758,18 +32785,19 @@
       <c r="Z708" s="1"/>
     </row>
     <row r="709" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A709" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B709" s="12" t="s">
-        <v>2177</v>
-      </c>
-      <c r="C709" s="12" t="s">
-        <v>2236</v>
-      </c>
-      <c r="D709" s="12" t="s">
-        <v>2178</v>
-      </c>
+      <c r="A709" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E709" s="1"/>
       <c r="F709" s="1"/>
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
@@ -32797,13 +32825,13 @@
         <v>4</v>
       </c>
       <c r="B710" s="12" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="C710" s="12" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D710" s="12" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="F710" s="1"/>
       <c r="G710" s="1"/>
@@ -32832,13 +32860,13 @@
         <v>4</v>
       </c>
       <c r="B711" s="12" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="C711" s="12" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="D711" s="12" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="F711" s="1"/>
       <c r="G711" s="1"/>
@@ -32867,13 +32895,13 @@
         <v>4</v>
       </c>
       <c r="B712" s="12" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="C712" s="12" t="s">
-        <v>2239</v>
+        <v>2235</v>
       </c>
       <c r="D712" s="12" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="F712" s="1"/>
       <c r="G712" s="1"/>
@@ -32902,13 +32930,13 @@
         <v>4</v>
       </c>
       <c r="B713" s="12" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="C713" s="12" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="D713" s="12" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="F713" s="1"/>
       <c r="G713" s="1"/>
@@ -32937,13 +32965,13 @@
         <v>4</v>
       </c>
       <c r="B714" s="12" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="C714" s="12" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="D714" s="12" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="F714" s="1"/>
       <c r="G714" s="1"/>
@@ -32972,13 +33000,13 @@
         <v>4</v>
       </c>
       <c r="B715" s="12" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="C715" s="12" t="s">
-        <v>2190</v>
+        <v>2238</v>
       </c>
       <c r="D715" s="12" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="F715" s="1"/>
       <c r="G715" s="1"/>
@@ -33007,13 +33035,13 @@
         <v>4</v>
       </c>
       <c r="B716" s="12" t="s">
-        <v>2243</v>
+        <v>2189</v>
       </c>
       <c r="C716" s="12" t="s">
-        <v>2248</v>
+        <v>2190</v>
       </c>
       <c r="D716" s="12" t="s">
-        <v>2244</v>
+        <v>2190</v>
       </c>
       <c r="F716" s="1"/>
       <c r="G716" s="1"/>
@@ -33042,13 +33070,13 @@
         <v>4</v>
       </c>
       <c r="B717" s="12" t="s">
-        <v>2191</v>
+        <v>2243</v>
       </c>
       <c r="C717" s="12" t="s">
-        <v>2192</v>
+        <v>2248</v>
       </c>
       <c r="D717" s="12" t="s">
-        <v>2192</v>
+        <v>2244</v>
       </c>
       <c r="F717" s="1"/>
       <c r="G717" s="1"/>
@@ -33077,13 +33105,13 @@
         <v>4</v>
       </c>
       <c r="B718" s="12" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="C718" s="12" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="D718" s="12" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="F718" s="1"/>
       <c r="G718" s="1"/>
@@ -33112,13 +33140,13 @@
         <v>4</v>
       </c>
       <c r="B719" s="12" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="C719" s="12" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="D719" s="12" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="F719" s="1"/>
       <c r="G719" s="1"/>
@@ -33147,13 +33175,13 @@
         <v>4</v>
       </c>
       <c r="B720" s="12" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="C720" s="12" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="D720" s="12" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="F720" s="1"/>
       <c r="G720" s="1"/>
@@ -33182,13 +33210,13 @@
         <v>4</v>
       </c>
       <c r="B721" s="12" t="s">
-        <v>2245</v>
+        <v>2197</v>
       </c>
       <c r="C721" s="12" t="s">
-        <v>2247</v>
+        <v>2198</v>
       </c>
       <c r="D721" s="12" t="s">
-        <v>2246</v>
+        <v>2198</v>
       </c>
       <c r="F721" s="1"/>
       <c r="G721" s="1"/>
@@ -33217,13 +33245,13 @@
         <v>4</v>
       </c>
       <c r="B722" s="12" t="s">
-        <v>2199</v>
+        <v>2245</v>
       </c>
       <c r="C722" s="12" t="s">
-        <v>2200</v>
+        <v>2247</v>
       </c>
       <c r="D722" s="12" t="s">
-        <v>2200</v>
+        <v>2246</v>
       </c>
       <c r="F722" s="1"/>
       <c r="G722" s="1"/>
@@ -33252,13 +33280,13 @@
         <v>4</v>
       </c>
       <c r="B723" s="12" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="C723" s="12" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="D723" s="12" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="F723" s="1"/>
       <c r="G723" s="1"/>
@@ -33287,13 +33315,13 @@
         <v>4</v>
       </c>
       <c r="B724" s="12" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="C724" s="12" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="D724" s="12" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="F724" s="1"/>
       <c r="G724" s="1"/>
@@ -33322,13 +33350,13 @@
         <v>4</v>
       </c>
       <c r="B725" s="12" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="C725" s="12" t="s">
-        <v>2241</v>
+        <v>2204</v>
       </c>
       <c r="D725" s="12" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="F725" s="1"/>
       <c r="G725" s="1"/>
@@ -33357,13 +33385,13 @@
         <v>4</v>
       </c>
       <c r="B726" s="12" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C726" s="12" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D726" s="12" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="F726" s="1"/>
       <c r="G726" s="1"/>
@@ -33392,13 +33420,13 @@
         <v>4</v>
       </c>
       <c r="B727" s="12" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="C727" s="12" t="s">
-        <v>2210</v>
+        <v>2242</v>
       </c>
       <c r="D727" s="12" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="F727" s="1"/>
       <c r="G727" s="1"/>
@@ -33427,13 +33455,13 @@
         <v>4</v>
       </c>
       <c r="B728" s="12" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="C728" s="12" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="D728" s="12" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="F728" s="1"/>
       <c r="G728" s="1"/>
@@ -33462,13 +33490,13 @@
         <v>4</v>
       </c>
       <c r="B729" s="12" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="C729" s="12" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="D729" s="12" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="F729" s="1"/>
       <c r="G729" s="1"/>
@@ -33497,13 +33525,13 @@
         <v>4</v>
       </c>
       <c r="B730" s="12" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="C730" s="12" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="D730" s="12" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="F730" s="1"/>
       <c r="G730" s="1"/>
@@ -33532,13 +33560,13 @@
         <v>4</v>
       </c>
       <c r="B731" s="12" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="C731" s="12" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="D731" s="12" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="F731" s="1"/>
       <c r="G731" s="1"/>
@@ -33567,13 +33595,13 @@
         <v>4</v>
       </c>
       <c r="B732" s="12" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="C732" s="12" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="D732" s="12" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="F732" s="1"/>
       <c r="G732" s="1"/>
@@ -33602,13 +33630,13 @@
         <v>4</v>
       </c>
       <c r="B733" s="12" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="C733" s="12" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="D733" s="12" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="F733" s="1"/>
       <c r="G733" s="1"/>
@@ -33637,13 +33665,13 @@
         <v>4</v>
       </c>
       <c r="B734" s="12" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="C734" s="12" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="D734" s="12" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="F734" s="1"/>
       <c r="G734" s="1"/>
@@ -33672,13 +33700,13 @@
         <v>4</v>
       </c>
       <c r="B735" s="12" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="C735" s="12" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="D735" s="12" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="F735" s="1"/>
       <c r="G735" s="1"/>
@@ -33707,13 +33735,13 @@
         <v>4</v>
       </c>
       <c r="B736" s="12" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="C736" s="12" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="D736" s="12" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="F736" s="1"/>
       <c r="G736" s="1"/>
@@ -33742,13 +33770,13 @@
         <v>4</v>
       </c>
       <c r="B737" s="12" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="C737" s="12" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="D737" s="12" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="F737" s="1"/>
       <c r="G737" s="1"/>
@@ -33777,13 +33805,13 @@
         <v>4</v>
       </c>
       <c r="B738" s="12" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="C738" s="12" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="D738" s="12" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="F738" s="1"/>
       <c r="G738" s="1"/>
@@ -33812,13 +33840,13 @@
         <v>4</v>
       </c>
       <c r="B739" s="12" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="C739" s="12" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="D739" s="12" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="F739" s="1"/>
       <c r="G739" s="1"/>
@@ -33846,16 +33874,15 @@
       <c r="A740" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B740" s="1" t="s">
-        <v>2249</v>
-      </c>
-      <c r="C740" s="1" t="s">
-        <v>2261</v>
-      </c>
-      <c r="D740" s="1" t="s">
-        <v>2250</v>
-      </c>
-      <c r="E740" s="1"/>
+      <c r="B740" s="12" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C740" s="12" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D740" s="12" t="s">
+        <v>2234</v>
+      </c>
       <c r="F740" s="1"/>
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
@@ -33883,13 +33910,13 @@
         <v>4</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="C741" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D741" s="1" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="E741" s="1"/>
       <c r="F741" s="1"/>
@@ -33919,13 +33946,13 @@
         <v>4</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D742" s="1" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="E742" s="1"/>
       <c r="F742" s="1"/>
@@ -33955,13 +33982,13 @@
         <v>4</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="C743" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D743" s="1" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="E743" s="1"/>
       <c r="F743" s="1"/>
@@ -33991,13 +34018,13 @@
         <v>4</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D744" s="1" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="E744" s="1"/>
       <c r="F744" s="1"/>
@@ -34027,13 +34054,13 @@
         <v>4</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="C745" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D745" s="1" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="E745" s="1"/>
       <c r="F745" s="1"/>
@@ -34063,13 +34090,13 @@
         <v>4</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>2269</v>
+        <v>2259</v>
       </c>
       <c r="C746" s="1" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="D746" s="1" t="s">
-        <v>2270</v>
+        <v>2260</v>
       </c>
       <c r="E746" s="1"/>
       <c r="F746" s="1"/>
@@ -34099,13 +34126,13 @@
         <v>4</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="D747" s="1" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="E747" s="1"/>
       <c r="F747" s="1"/>
@@ -34135,13 +34162,13 @@
         <v>4</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>2273</v>
+        <v>2267</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>2274</v>
+        <v>2268</v>
       </c>
       <c r="D748" s="1" t="s">
-        <v>2274</v>
+        <v>2268</v>
       </c>
       <c r="E748" s="1"/>
       <c r="F748" s="1"/>
@@ -34171,13 +34198,13 @@
         <v>4</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="D749" s="1" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="E749" s="1"/>
       <c r="F749" s="1"/>
@@ -34203,10 +34230,18 @@
       <c r="Z749" s="1"/>
     </row>
     <row r="750" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A750" s="1"/>
-      <c r="B750" s="1"/>
-      <c r="C750" s="1"/>
-      <c r="D750" s="1"/>
+      <c r="A750" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>2272</v>
+      </c>
       <c r="E750" s="1"/>
       <c r="F750" s="1"/>
       <c r="G750" s="1"/>
@@ -35041,6 +35076,34 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
       <c r="Z779" s="1"/>
+    </row>
+    <row r="780" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A780" s="1"/>
+      <c r="B780" s="1"/>
+      <c r="C780" s="1"/>
+      <c r="D780" s="1"/>
+      <c r="E780" s="1"/>
+      <c r="F780" s="1"/>
+      <c r="G780" s="1"/>
+      <c r="H780" s="1"/>
+      <c r="I780" s="1"/>
+      <c r="J780" s="1"/>
+      <c r="K780" s="1"/>
+      <c r="L780" s="1"/>
+      <c r="M780" s="1"/>
+      <c r="N780" s="1"/>
+      <c r="O780" s="1"/>
+      <c r="P780" s="1"/>
+      <c r="Q780" s="1"/>
+      <c r="R780" s="1"/>
+      <c r="S780" s="1"/>
+      <c r="T780" s="1"/>
+      <c r="U780" s="1"/>
+      <c r="V780" s="1"/>
+      <c r="W780" s="1"/>
+      <c r="X780" s="1"/>
+      <c r="Y780" s="1"/>
+      <c r="Z780" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">

--- a/Listes_indicateurs_annuaire_stat.xlsx
+++ b/Listes_indicateurs_annuaire_stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\monprojet1_annuaire\Production-statistique-MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EDB794-E4AB-4CAC-9080-686907242BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71136F3-94E3-4796-89DE-A1425F2C0052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="2290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="2291">
   <si>
     <t>listes_indicateurs</t>
   </si>
@@ -6911,6 +6911,9 @@
   </si>
   <si>
     <t>vHkwS5grzOs</t>
+  </si>
+  <si>
+    <t>listind0_completude_obc</t>
   </si>
 </sst>
 </file>
@@ -7319,8 +7322,8 @@
   <dimension ref="A1:Z782"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C291" sqref="C291"/>
+      <pane ySplit="1" topLeftCell="A703" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C715" sqref="C715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -32930,8 +32933,8 @@
       <c r="Z711" s="1"/>
     </row>
     <row r="712" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A712" s="12" t="s">
-        <v>4</v>
+      <c r="A712" s="1" t="s">
+        <v>2290</v>
       </c>
       <c r="B712" s="12" t="s">
         <v>2177</v>
@@ -32965,8 +32968,8 @@
       <c r="Z712" s="1"/>
     </row>
     <row r="713" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A713" s="12" t="s">
-        <v>4</v>
+      <c r="A713" s="1" t="s">
+        <v>2290</v>
       </c>
       <c r="B713" s="12" t="s">
         <v>2179</v>
@@ -33000,8 +33003,8 @@
       <c r="Z713" s="1"/>
     </row>
     <row r="714" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A714" s="12" t="s">
-        <v>4</v>
+      <c r="A714" s="1" t="s">
+        <v>2290</v>
       </c>
       <c r="B714" s="12" t="s">
         <v>2181</v>
@@ -33035,8 +33038,8 @@
       <c r="Z714" s="1"/>
     </row>
     <row r="715" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A715" s="12" t="s">
-        <v>4</v>
+      <c r="A715" s="1" t="s">
+        <v>2290</v>
       </c>
       <c r="B715" s="12" t="s">
         <v>2183</v>
@@ -33070,8 +33073,8 @@
       <c r="Z715" s="1"/>
     </row>
     <row r="716" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A716" s="12" t="s">
-        <v>4</v>
+      <c r="A716" s="1" t="s">
+        <v>2290</v>
       </c>
       <c r="B716" s="12" t="s">
         <v>2185</v>
@@ -33105,8 +33108,8 @@
       <c r="Z716" s="1"/>
     </row>
     <row r="717" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A717" s="12" t="s">
-        <v>4</v>
+      <c r="A717" s="1" t="s">
+        <v>2290</v>
       </c>
       <c r="B717" s="12" t="s">
         <v>2187</v>

--- a/Listes_indicateurs_annuaire_stat.xlsx
+++ b/Listes_indicateurs_annuaire_stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\monprojet1_annuaire\Production-statistique-MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71136F3-94E3-4796-89DE-A1425F2C0052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27CCE38-7432-47FF-8522-95EDDDA3FE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="2291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="2285">
   <si>
     <t>listes_indicateurs</t>
   </si>
@@ -6580,12 +6580,6 @@
     <t>OBC- Formulaire OBC -02- Paludisme - Actual reports</t>
   </si>
   <si>
-    <t>eyxvYzF1BBL.ACTUAL_REPORTS_ON_TIME</t>
-  </si>
-  <si>
-    <t>OBC- Formulaire OBC -02- Paludisme - Actual reports on time</t>
-  </si>
-  <si>
     <t>eyxvYzF1BBL.EXPECTED_REPORTS</t>
   </si>
   <si>
@@ -6598,12 +6592,6 @@
     <t>OBC- Formulaire OBC -03- Tuberculose &amp; VIH - Actual reports</t>
   </si>
   <si>
-    <t>Zq2zZQEZXzi.ACTUAL_REPORTS_ON_TIME</t>
-  </si>
-  <si>
-    <t>OBC- Formulaire OBC -03- Tuberculose &amp; VIH - Actual reports on time</t>
-  </si>
-  <si>
     <t>Zq2zZQEZXzi.EXPECTED_REPORTS</t>
   </si>
   <si>
@@ -6754,16 +6742,10 @@
     <t>OBC- Formulaire OBC Paludisme: Rapports_saisis</t>
   </si>
   <si>
-    <t>OBC- Formulaire OBC Paludisme: Rapports_saisis_a_temps</t>
-  </si>
-  <si>
     <t>OBC- Formulaire OBC -03- Tuberculose &amp; VIH: Rapports_attendus</t>
   </si>
   <si>
     <t>OBC- Formulaire OBC -03- Tuberculose &amp; VIH: Rapports_saisis</t>
-  </si>
-  <si>
-    <t>OBC- Formulaire OBC -03- Tuberculose &amp; VIH: Rapports_saisis_a_temps</t>
   </si>
   <si>
     <t>Obc-PVVIH ayant participé aux clubs d’observance</t>
@@ -7319,11 +7301,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z782"/>
+  <dimension ref="A1:Z780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A703" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C715" sqref="C715"/>
+      <selection pane="bottomLeft" activeCell="C713" sqref="C713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7773,13 +7755,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>2278</v>
+        <v>2272</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>2280</v>
+        <v>2274</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>2279</v>
+        <v>2273</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -7809,13 +7791,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>2282</v>
+        <v>2276</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -7845,13 +7827,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>2283</v>
+        <v>2277</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>2286</v>
+        <v>2280</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>2284</v>
+        <v>2278</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -11625,13 +11607,13 @@
         <v>4</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>2289</v>
+        <v>2283</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>2287</v>
+        <v>2281</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -20481,13 +20463,13 @@
         <v>4</v>
       </c>
       <c r="B366" s="16" t="s">
-        <v>2275</v>
+        <v>2269</v>
       </c>
       <c r="C366" s="17" t="s">
-        <v>2277</v>
+        <v>2271</v>
       </c>
       <c r="D366" s="14" t="s">
-        <v>2276</v>
+        <v>2270</v>
       </c>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
@@ -32934,13 +32916,13 @@
     </row>
     <row r="712" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A712" s="1" t="s">
-        <v>2290</v>
+        <v>2284</v>
       </c>
       <c r="B712" s="12" t="s">
         <v>2177</v>
       </c>
       <c r="C712" s="12" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="D712" s="12" t="s">
         <v>2178</v>
@@ -32969,13 +32951,13 @@
     </row>
     <row r="713" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A713" s="1" t="s">
-        <v>2290</v>
+        <v>2284</v>
       </c>
       <c r="B713" s="12" t="s">
         <v>2179</v>
       </c>
       <c r="C713" s="12" t="s">
-        <v>2237</v>
+        <v>2231</v>
       </c>
       <c r="D713" s="12" t="s">
         <v>2180</v>
@@ -33004,13 +32986,13 @@
     </row>
     <row r="714" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A714" s="1" t="s">
-        <v>2290</v>
+        <v>2284</v>
       </c>
       <c r="B714" s="12" t="s">
         <v>2181</v>
       </c>
       <c r="C714" s="12" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="D714" s="12" t="s">
         <v>2182</v>
@@ -33039,13 +33021,13 @@
     </row>
     <row r="715" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A715" s="1" t="s">
-        <v>2290</v>
+        <v>2284</v>
       </c>
       <c r="B715" s="12" t="s">
         <v>2183</v>
       </c>
       <c r="C715" s="12" t="s">
-        <v>2239</v>
+        <v>2233</v>
       </c>
       <c r="D715" s="12" t="s">
         <v>2184</v>
@@ -33073,14 +33055,14 @@
       <c r="Z715" s="1"/>
     </row>
     <row r="716" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A716" s="1" t="s">
-        <v>2290</v>
+      <c r="A716" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="B716" s="12" t="s">
         <v>2185</v>
       </c>
       <c r="C716" s="12" t="s">
-        <v>2240</v>
+        <v>2186</v>
       </c>
       <c r="D716" s="12" t="s">
         <v>2186</v>
@@ -33108,17 +33090,17 @@
       <c r="Z716" s="1"/>
     </row>
     <row r="717" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A717" s="1" t="s">
-        <v>2290</v>
+      <c r="A717" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="B717" s="12" t="s">
-        <v>2187</v>
+        <v>2237</v>
       </c>
       <c r="C717" s="12" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D717" s="12" t="s">
         <v>2238</v>
-      </c>
-      <c r="D717" s="12" t="s">
-        <v>2188</v>
       </c>
       <c r="F717" s="1"/>
       <c r="G717" s="1"/>
@@ -33147,13 +33129,13 @@
         <v>4</v>
       </c>
       <c r="B718" s="12" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="C718" s="12" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="D718" s="12" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="F718" s="1"/>
       <c r="G718" s="1"/>
@@ -33182,13 +33164,13 @@
         <v>4</v>
       </c>
       <c r="B719" s="12" t="s">
-        <v>2243</v>
+        <v>2189</v>
       </c>
       <c r="C719" s="12" t="s">
-        <v>2248</v>
+        <v>2190</v>
       </c>
       <c r="D719" s="12" t="s">
-        <v>2244</v>
+        <v>2190</v>
       </c>
       <c r="F719" s="1"/>
       <c r="G719" s="1"/>
@@ -33287,13 +33269,13 @@
         <v>4</v>
       </c>
       <c r="B722" s="12" t="s">
-        <v>2195</v>
+        <v>2239</v>
       </c>
       <c r="C722" s="12" t="s">
-        <v>2196</v>
+        <v>2241</v>
       </c>
       <c r="D722" s="12" t="s">
-        <v>2196</v>
+        <v>2240</v>
       </c>
       <c r="F722" s="1"/>
       <c r="G722" s="1"/>
@@ -33322,13 +33304,13 @@
         <v>4</v>
       </c>
       <c r="B723" s="12" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="C723" s="12" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="D723" s="12" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="F723" s="1"/>
       <c r="G723" s="1"/>
@@ -33357,13 +33339,13 @@
         <v>4</v>
       </c>
       <c r="B724" s="12" t="s">
-        <v>2245</v>
+        <v>2197</v>
       </c>
       <c r="C724" s="12" t="s">
-        <v>2247</v>
+        <v>2198</v>
       </c>
       <c r="D724" s="12" t="s">
-        <v>2246</v>
+        <v>2198</v>
       </c>
       <c r="F724" s="1"/>
       <c r="G724" s="1"/>
@@ -33430,7 +33412,7 @@
         <v>2201</v>
       </c>
       <c r="C726" s="12" t="s">
-        <v>2202</v>
+        <v>2235</v>
       </c>
       <c r="D726" s="12" t="s">
         <v>2202</v>
@@ -33465,7 +33447,7 @@
         <v>2203</v>
       </c>
       <c r="C727" s="12" t="s">
-        <v>2204</v>
+        <v>2236</v>
       </c>
       <c r="D727" s="12" t="s">
         <v>2204</v>
@@ -33500,7 +33482,7 @@
         <v>2205</v>
       </c>
       <c r="C728" s="12" t="s">
-        <v>2241</v>
+        <v>2206</v>
       </c>
       <c r="D728" s="12" t="s">
         <v>2206</v>
@@ -33535,7 +33517,7 @@
         <v>2207</v>
       </c>
       <c r="C729" s="12" t="s">
-        <v>2242</v>
+        <v>2208</v>
       </c>
       <c r="D729" s="12" t="s">
         <v>2208</v>
@@ -33951,15 +33933,16 @@
       <c r="A741" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B741" s="12" t="s">
-        <v>2231</v>
-      </c>
-      <c r="C741" s="12" t="s">
-        <v>2232</v>
-      </c>
-      <c r="D741" s="12" t="s">
-        <v>2232</v>
-      </c>
+      <c r="B741" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E741" s="1"/>
       <c r="F741" s="1"/>
       <c r="G741" s="1"/>
       <c r="H741" s="1"/>
@@ -33986,15 +33969,16 @@
       <c r="A742" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B742" s="12" t="s">
-        <v>2233</v>
-      </c>
-      <c r="C742" s="12" t="s">
-        <v>2234</v>
-      </c>
-      <c r="D742" s="12" t="s">
-        <v>2234</v>
-      </c>
+      <c r="B742" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E742" s="1"/>
       <c r="F742" s="1"/>
       <c r="G742" s="1"/>
       <c r="H742" s="1"/>
@@ -34022,13 +34006,13 @@
         <v>4</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="C743" s="1" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="D743" s="1" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="E743" s="1"/>
       <c r="F743" s="1"/>
@@ -34058,13 +34042,13 @@
         <v>4</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="D744" s="1" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="E744" s="1"/>
       <c r="F744" s="1"/>
@@ -34094,13 +34078,13 @@
         <v>4</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="C745" s="1" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="D745" s="1" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="E745" s="1"/>
       <c r="F745" s="1"/>
@@ -34130,13 +34114,13 @@
         <v>4</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="C746" s="1" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
       <c r="D746" s="1" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="E746" s="1"/>
       <c r="F746" s="1"/>
@@ -34166,13 +34150,13 @@
         <v>4</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>2257</v>
+        <v>2263</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D747" s="1" t="s">
-        <v>2258</v>
+        <v>2264</v>
       </c>
       <c r="E747" s="1"/>
       <c r="F747" s="1"/>
@@ -34202,13 +34186,13 @@
         <v>4</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
       <c r="D748" s="1" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="E748" s="1"/>
       <c r="F748" s="1"/>
@@ -34238,13 +34222,13 @@
         <v>4</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="D749" s="1" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="E749" s="1"/>
       <c r="F749" s="1"/>
@@ -34274,13 +34258,13 @@
         <v>4</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="D750" s="1" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="E750" s="1"/>
       <c r="F750" s="1"/>
@@ -34306,18 +34290,10 @@
       <c r="Z750" s="1"/>
     </row>
     <row r="751" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A751" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B751" s="1" t="s">
-        <v>2273</v>
-      </c>
-      <c r="C751" s="1" t="s">
-        <v>2274</v>
-      </c>
-      <c r="D751" s="1" t="s">
-        <v>2274</v>
-      </c>
+      <c r="A751" s="1"/>
+      <c r="B751" s="1"/>
+      <c r="C751" s="1"/>
+      <c r="D751" s="1"/>
       <c r="E751" s="1"/>
       <c r="F751" s="1"/>
       <c r="G751" s="1"/>
@@ -34342,18 +34318,10 @@
       <c r="Z751" s="1"/>
     </row>
     <row r="752" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A752" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B752" s="1" t="s">
-        <v>2271</v>
-      </c>
-      <c r="C752" s="1" t="s">
-        <v>2272</v>
-      </c>
-      <c r="D752" s="1" t="s">
-        <v>2272</v>
-      </c>
+      <c r="A752" s="1"/>
+      <c r="B752" s="1"/>
+      <c r="C752" s="1"/>
+      <c r="D752" s="1"/>
       <c r="E752" s="1"/>
       <c r="F752" s="1"/>
       <c r="G752" s="1"/>
@@ -35160,62 +35128,6 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
       <c r="Z780" s="1"/>
-    </row>
-    <row r="781" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A781" s="1"/>
-      <c r="B781" s="1"/>
-      <c r="C781" s="1"/>
-      <c r="D781" s="1"/>
-      <c r="E781" s="1"/>
-      <c r="F781" s="1"/>
-      <c r="G781" s="1"/>
-      <c r="H781" s="1"/>
-      <c r="I781" s="1"/>
-      <c r="J781" s="1"/>
-      <c r="K781" s="1"/>
-      <c r="L781" s="1"/>
-      <c r="M781" s="1"/>
-      <c r="N781" s="1"/>
-      <c r="O781" s="1"/>
-      <c r="P781" s="1"/>
-      <c r="Q781" s="1"/>
-      <c r="R781" s="1"/>
-      <c r="S781" s="1"/>
-      <c r="T781" s="1"/>
-      <c r="U781" s="1"/>
-      <c r="V781" s="1"/>
-      <c r="W781" s="1"/>
-      <c r="X781" s="1"/>
-      <c r="Y781" s="1"/>
-      <c r="Z781" s="1"/>
-    </row>
-    <row r="782" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A782" s="1"/>
-      <c r="B782" s="1"/>
-      <c r="C782" s="1"/>
-      <c r="D782" s="1"/>
-      <c r="E782" s="1"/>
-      <c r="F782" s="1"/>
-      <c r="G782" s="1"/>
-      <c r="H782" s="1"/>
-      <c r="I782" s="1"/>
-      <c r="J782" s="1"/>
-      <c r="K782" s="1"/>
-      <c r="L782" s="1"/>
-      <c r="M782" s="1"/>
-      <c r="N782" s="1"/>
-      <c r="O782" s="1"/>
-      <c r="P782" s="1"/>
-      <c r="Q782" s="1"/>
-      <c r="R782" s="1"/>
-      <c r="S782" s="1"/>
-      <c r="T782" s="1"/>
-      <c r="U782" s="1"/>
-      <c r="V782" s="1"/>
-      <c r="W782" s="1"/>
-      <c r="X782" s="1"/>
-      <c r="Y782" s="1"/>
-      <c r="Z782" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
